--- a/news_data/2018_10.xlsx
+++ b/news_data/2018_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,52 +22,136 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도관광협회, 제17차 제주관광포럼 개최</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 중소 관광사업체 ‘SNS 마케팅' 특강</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제17차 관광포럼 31일 개최</t>
+  </si>
+  <si>
+    <t>“제주도, 관함식 찬성 강정주민 대상 크루즈관광 지원”</t>
+  </si>
+  <si>
+    <t>진에어, 제주도 떠나는 가족에 관광이용권 1000장 쏜다</t>
+  </si>
+  <si>
+    <t>제주도, 제22회 섬 관광정책 포럼 참가</t>
+  </si>
+  <si>
+    <t>제주도 중국인 관광객 증가세…제주 드림타워 관심 ‘후끈’</t>
+  </si>
+  <si>
+    <t>제주도 중문 대표 맛집 ‘갈치왕’, 중문 관광단지 무료 픽업서비스 실시</t>
+  </si>
+  <si>
+    <t>[현장사진] 한라산에도 단풍, 제주도 관광 코스 '단풍놀이' 추가</t>
+  </si>
+  <si>
+    <t>10월 제주도 가볼 만한 곳 '브릭캠퍼스'… 직접 즐기는 체험형 실내관광지로 ...</t>
+  </si>
+  <si>
+    <t>제주도, 국제관함식 기간 장병 공영관광지 무료입장 허용</t>
+  </si>
+  <si>
+    <t>[윤희영의 News English] 제주도 운전면허시험 관광</t>
+  </si>
+  <si>
+    <t>제주도, 태국 개별관광객 유치 마케팅 본격화</t>
+  </si>
+  <si>
+    <t>제주도, 내국인 관광객 4년 만에 줄었다</t>
+  </si>
+  <si>
+    <t>면허 따러 제주도 찾는 中 관광객 급증…"올해만 2172명 취득"</t>
+  </si>
+  <si>
+    <t>[이슈] 하트독, 반려견 동반 입장 가능 제주도 해안 관광 명소 4곳 추천</t>
+  </si>
+  <si>
+    <t>제주도 비오는날에 가볼만한 관광지? ‘제주실탄사격장’, 특별한 체험 제공</t>
+  </si>
+  <si>
+    <t>살인·절도·폭력 1위는 제주도…"관광지에 맞는 대책 필요"</t>
+  </si>
+  <si>
+    <t>[전문] 이경용 제주도의회 문화관광체육위원장, 행정사무감사 임하는 입장</t>
+  </si>
+  <si>
+    <t>10월 제주도 실내 관광지로 가볼 만한 곳, 이색적인 레고박물관 '브릭캠퍼스'...</t>
+  </si>
+  <si>
     <t>국제관함식 참가 장병, 제주도내 공영관광지 무료 입장</t>
   </si>
   <si>
-    <t>[이슈] 하트독, 반려견 동반 입장 가능 제주도 해안 관광 명소 4곳 추천</t>
-  </si>
-  <si>
-    <t>제주도 비오는날에 가볼만한 관광지? ‘제주실탄사격장’, 특별한 체험 제공</t>
-  </si>
-  <si>
-    <t>[전문] 이경용 제주도의회 문화관광체육위원장, 행정사무감사 임하는 입장</t>
-  </si>
-  <si>
     <t>군 장병, 국제관함식 기간 제주도 공영관광지 무료입장</t>
   </si>
   <si>
-    <t>살인·절도·폭력 1위는 제주도…"관광지에 맞는 대책 필요"</t>
-  </si>
-  <si>
     <t>하트독, 반려견 동반 가능 제주도 해안 관광 명소 소개</t>
   </si>
   <si>
-    <t>10월 제주도 실내 관광지로 가볼 만한 곳, 이색적인 레고박물관 '브릭캠퍼스'...</t>
-  </si>
-  <si>
     <t>가을 제주도 관광 명소 TOP3…향토음식 '이모밥상' 한정식으로 든든하게</t>
   </si>
   <si>
-    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-04 10:23 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N3 이전 다음 국제관함식 참가 장병, 제주도내 공영관광지 무료 입장 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 사회 국제관함식 참가 장병, 제주도내 공영관광지 무료 입장 홍석준 기자 승인 2018.10.04 10:30 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도, 45개국 대표단 1만8000여명 대상 제주 관광자원 홍보 차원 [미디어제주 홍석준 기자] 제주에서 열리는 2018 국제관함식 참가 장병을 대상으로 한 제주도내 공영관광지 무료 입장 이벤트가 마련됐다. 제주특별자치도는 오는 10월 10일부터 14일까지 5일간 관함식 참가 장병들이 공영관광지에 무료로 입장할 수 있도록 하는 한편 이동형 관광안내소 운영 등 제주를 홍보하기 위한 다양한 이벤트를 마련했다고 4일 밝혔다. 도 관계자는 “관함식 기간 중 45개국 대표단 1만8000여명이 제주를 방문할 것으로 예상, 이들을 대상으로 제주의 매력적인 관광자원을 세계적으로 널리 알리기 위한 것이라고 취지를 설명했다. 이에 따라 행사기간 중 관함식 기획단에서 발급한 표찰을 소지하면 유료 공영관광지 29곳(도 13곳, 제주시 3곳, 서귀포시 13곳)에 무료로 입장할 수 있다. 또 제주도관광협회와 공동으로 관함식 기간 중 행사장 안에 이동형 관광안내소를 운영, 관광 홍보책자를 배부하는 등 관광지 홍보 이벤트를 진행할 예정이다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 밥을 같이 먹는 식구가 서로 살아갈 힘을 주고 받듯 책을 함께 공유하는 것이 같은 원리라는 말이 깊이 와 닿네요~ 아이들 어릴적 책을 읽어 주면서 정서적 교감했던 행복한 기억이 있네요. 요즘은 바쁘다는 핑계로 책 읽어주기를 못했는데 다시 도전해봐야 겠네요. 혼자보다 함께 해야 하는 현 시대에 필요한 맞춤형 독서지도라는 생각이 듭니다 잘 읽었습니다. 내년엔 저도 참여해보고 싶네요~~ 여러 권 읽는 것보다 한 권을 여러 명이 토론하는 것이 낫다는 말 공감합니다^^ 가장 많이 읽은 기사 1제19회 賢테니스회장배 전도클럽대항 테니스대회 ‘후끈’ 2한글서예 ‘한평생 한길’, 한곬 현병찬 선생 세종문화상 수상 3서귀포시, '중장년 스타트업 부트캠프' 참가자 모집 4제주의 얼을 담다 ... 탐라문화제, 3년만에 대면행사로 5선흘 동백동산에서 평화의 노래를 "제주4.3 평화음악축제" SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
-  </si>
-  <si>
-    <t>제주도 비오는날에 가볼만한 관광지? ‘제주실탄사격장’, 특별한 체험 제공 - 데일리시큐 × 전체기사 산업 이슈 정책 해외 IT&amp;생활 전체 핫이슈 라이프 뉴스 경제일반 이슈 산업 정책 해외 IT&amp;생활 핫이슈 자료실 전체기사 기사검색 기사제보 뉴스레터신청 2022-10-04 10:25 (화) 처음으로 로그인 회원가입 이전 다음 제주도 비오는날에 가볼만한 관광지? ‘제주실탄사격장’, 특별한 체험 제공 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME IT&amp;생활 제주도 비오는날에 가볼만한 관광지? ‘제주실탄사격장’, 특별한 체험 제공 홍채희 기자 승인 2018.10.10 17:55 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 수 많은 이색 즐길거리가 가득한 제주도는 매년마다 많은 커플, 혹은 친구 단위 여행객들이 찾아오는 손꼽히는 여행지다.특히 제주도 중문관광단지는 박물관이나 구경거리와 체험거리가 가득해 남녀노소, 가족여행으로도 안성맞춤 여행지로 추천되고 있다.하지만 여행에 가장 중요한 요소로 손꼽히는 것은 바로 날씨이다. 푸른 하늘에 눈부신 햇살과 함께하는 여행은 즐거운 추억만을 남기지만 먹구름에 비와 바람이 동반되는 악천후 속 여행은 그다지 반갑지 않다.이에 제주도에서는 비오는날 가볼만한 관광지로 손꼽히는 여행지로써 ‘제주실탄사격장’이 존재한다.실내에서 진행되는 ‘제주실탄사격장’은 날씨와 관련없이 도심속에서는 차마 경험하지 못했던 이색체험을 한 번에 누릴 수 있어 더할나위 없이 좋기 때문이다.최근에는 이벤트와 행사 또한 진행하고 있어 단체손님들을 비롯해 커플, 친구 여행객들에게 많은 사랑을 받고 있다. ‘제주실탄사격장’의 직원 마인드 역시 친절하고 상세히 안내해주는 서비스를 진행해 안전하게 모든 과정을 체험할 수 있고 좋은 추억을 간직하고 돌아갈 수 있도록 한다.이곳에서 체험할 수 있는 코스는 총 3가지가 존재한다.신분증이 필수로 요구되어지는 실탄사격과 연령제한이 존재하지 않는 비비탄사격 및 시뮬레이션사격이 있다.실탄사격의 경우 리볼버와 글록 권총이 있다. 각 권총마다 실탄의 크기가 다르며 또한 각 칸마다 고글이 설치되어 있고 모든 사격 시에는 직원이 동행해 사용방법과 안전수칙 등을 친절하게 설명해주기 때문에 걱정없이 체험해볼 수 있다.이 외에도 재밌는 형식으로 진행되는 비비탄사격체험과 시뮬레이션사격체험 역시 남녀노소 구분없이 가능해 인기가 좋다.한편 ‘제주실탄사격장’ 관계자 말에 의하면 “중문관광단지 근처 위치해 있기 때문에 보다 간편하게 찾아올 수 있으며 이색적인 체험 경험을 쉽게 해볼 수 있으니 더할나위 없이 좋다”라고 전했다. 저작권자 © 데일리시큐 무단전재 및 재배포 금지 홍채희 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 많이 본뉴스 1 [PASCON 2022] 하반기 최대 정보보호 컨퍼런스...9월 28일 개최, 사전등록 접수중 [PASCON 2022] 하반기 최대 정보보호 컨퍼런스...9월 28일 개최, 사전등록 접수중 2 조직화된 서비스형 랜섬웨어 위협 급증...종합적인 대응 필요 조직화된 서비스형 랜섬웨어 위협 급증...종합적인 대응 필요 3 [CPS보안워크숍] 정현철 PM “해커들 공격 억제위해 공세적 대응기술 발전시켜야” [CPS보안워크숍] 정현철 PM “해커들 공격 억제위해 공세적 대응기술 발전시켜야” 4 “국내 랜섬웨어 피해기업 80%가 중소기업...64%는 백업도 안 해” “국내 랜섬웨어 피해기업 80%가 중소기업...64%는 백업도 안 해” 5 우버, 최근 보안 침해에 대해 삼성·시스코·MS 등 공격한 ‘랩서스’ 해킹 그룹 비난 우버, 최근 보안 침해에 대해 삼성·시스코·MS 등 공격한 ‘랩서스’ 해킹 그룹 비난 오늘이 주요뉴스 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 긴급속보 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 정책 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 긴급속보 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 아울시스템즈, ‘국방보안 컨퍼런스'에서 신제품 및 파트너사 제품 소개 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 아울시스템즈, ‘국방보안 컨퍼런스'에서 신제품 및 파트너사 제품 소개 보안자료 2022년_상반기_악성코드_은닉사이트_탐지_동향_보고서(KISA) 개인정보보호위원회, 개인정보의 기술적 관리적 보호조치 기준 개정 해설서(2022.8.) 금융보안원-전자금융과 금융보안 제29호 아동·청소년 개인정보 보호 가이드라인(2022.7, 제정) 정보보호 해외진출 전략거점 월간 주요동향(2022년 7월) 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 송파구 가락로 208, 402호(송파동, 일조빌딩) 대표전화 : 02-400-2908 팩스 : 02-400-2906 청소년보호책임자 : 길민권 법인명 : 제호 : 데일리시큐 등록번호 : 서울 아 02362 등록일 : 2011년 3월 28일 발행일 : 2017-05-01 발행·편집인 : 길민권 사업자 번호 : 301-87-02348 데일리시큐 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 데일리시큐. All rights reserved. mail to mkgil@dailysecu.com 위로</t>
-  </si>
-  <si>
-    <t>[전문] 이경용 제주도의회 문화관광체육위원장, 행정사무감사 임하는 입장 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:29 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [전문] 이경용 제주도의회 문화관광체육위원장, 행정사무감사 임하는 입장 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 [전문] 이경용 제주도의회 문화관광체육위원장, 행정사무감사 임하는 입장 편집팀 iheadline@hanmail.net 승인 2018.10.15 14:35 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × ▲ 이경용 제주도의회 문화관광체육위원장. ⓒ헤드라인제주 “문화·관광현안에 대한 도민사회 의혹해소와 행정과오 점검과 함께 대안제시도 함께 민선 7기 출범 첫 행정사무감사입니다. 지난 도정과의 연속성 차원에서 원도정이 도민들에게 밝혔던 약속들을 차분히 수행할 준비와 계획을 세우고 있는지에 대해 점검하는 행정사무감사가 될 것입니다. 지금 도민사회 현안이 되고 있는 문화관광정책이 제대로 추진되고 있는지 집중 점검하며 도민들의 의혹해소에 주력하겠습니다. 특히 문화정책과 관련해서는 제주문화예술재단 한짓골 아트플랫폼 건물매입과 타당성, 제주비엔날레 평가와 차기 추진여부, 문화산업의 일자리 연계와 제주 특화성에 대해 점검하겠습니다. 또한 최근 신화역사공원의 오수역류문제 발생사례에서 보듯이 대규모개발사업 추진에 따른 행정과오와 도민사회의 부작용과 우려점에 대해 꼼꼼히 살펴볼 것입니다. 관광객 유치와 투자유치라는 명분으로 그동안 각종 대규모 개발사업의 인허가 절차 승인과정에서 법과 조례를 위반한 사례가 없는지, 특정 개발사업에 대한 특혜우려의 소지가 없는지 면밀히 들여다 볼 것입니다. 이외에도 제주관광의 질적전환, 과잉관광의 문제, 대형카지노 확산문제, 도민고용과 지역상생방안 등 도민 체감도를 높이기 위한 정책효과를 제대로 발휘하고 할 수 있는지에 대해 집중적인 점검을 통해 행정의 과오와 실책을 바로잡는데 중점을 둘 것입니다. 이번 행정사무감사기간 동안 문화관광분야의 정책점검을 통해 행정의 문제점 지적과 개선요구뿐만이 아니라 보다 발전적인 대안제시도 함께 모색하여 내실있는 행정사무감사가 될 수 있도록 최선의 노력을 다해나가겠습니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 행정사무감사 '고강도 감사' 예고..."하수역류, 재밋섬 등 의혹 규명" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>군 장병, 국제관함식 기간 제주도 공영관광지 무료입장 &lt; 전국 &lt; 기사본문 - BBS NEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-04 10:28 (화) 로그인 회원가입 BBS불교방송 홈페이지 바로가기 상세검색 facebook twitter kakaostory youtube 전체 경제 정치 제 20대 대통령 선거 사회 문화ㆍ스포츠 불교 국제 전국 BBS 인터뷰 BBS 칼럼 BBS 취재수첩 BBS PLAZA 인사/부고 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 군 장병, 국제관함식 기간 제주도 공영관광지 무료입장 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 군 장병, 국제관함식 기간 제주도 공영관광지 무료입장 기자명 황민호 기자 입력 2018.10.04 14:09 수정 2018.10.04 17:22 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주 국제관함식에 참가하는 장병들에게 도 내 공영관광지가 무료로 개방됩니다.제주도는 건군 70주년을 맞아 2018 국제관함식 기간인 오는 10일부터 14일까지 참가 장병을 대상으로 유료 공영관광지 무료입장 이벤트를 마련했다고 오늘(4일) 밝혔습니다.유료 공영관광지는 모두 29개소로 국제관함식 기획단에서 발급한 표찰을 소지하면 무료입장할 수 있습니다. 황민호 기자 acemino@bbsi.co.kr 다른기사 보기 저작권자 © BBS NEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 구절초 향기 가득한 영평사로 오세요~ 정토사회문화회관 개관, '사회공헌·포교'의 전당 서울의 첫 수도 "한성백제문화제"...9/30~10/3 올림픽공원에서 소백산 예천 용문사, 다음달(10월) 2일 “대장전.윤장대 국보승격 축하음악회” 개최 공군 블랙이글스, 한강공원 에어쇼 우천으로 취소 제주 곽지해수욕장서 스노쿨링 중 실종된 40대 변사체로 발견 미륵도량 봉덕사 "희망의 노래 전통차 축전" 구절초 향기 가득한 영평사로 오세요~ 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 "美, 중간선거 뒤 'IRA' 규정 유연 적용 가능성" 국회, 오늘 국감돌입…법사위·외통위서 난타전 예고 尹 "북한 무모한 핵 도발, 국제사회 결연 대응 직면할 것" [박주정 교육칼럼] "마을과 함께하는 교육공동체 활동에 감동" 소아 한약, 언제 먹을까요? 5·18조사위, 옛 광주교도소서 출토된 유골은 5·18 행불자 최신뉴스 국제 "美, 중간선거 뒤 'IRA' 규정 유연 적용 가능성" 정치 국회, 오늘 국감돌입…법사위·외통위서 난타전 예고 정치 尹 "북한 무모한 핵 도발, 국제사회 결연 대응 직면할 것" 전국 [박주정 교육칼럼] "마을과 함께하는 교육공동체 활동에 감동" 지방사 인터뷰 소아 한약, 언제 먹을까요? 포토뉴스 "美, 중간선거 뒤 'IRA' 규정 유연 적용 가능성" 국회, 오늘 국감돌입…법사위·외통위서 난타전 예고 尹 "북한 무모한 핵 도발, 국제사회 결연 대응 직면할 것" [박주정 교육칼럼] "마을과 함께하는 교육공동체 활동에 감동" 인기뉴스 1 ‘모두의 행복 발원’ 영평사에서 낙화전통문화축제 2 [뉴스파노라마 개천절 휴일 특집] 정찬주 작가 “간화선, 현대인에 최적화된 수행법…글쓰기, 무문관(無門關) 수행” 3 감사원, 문 전 대통령 서면조사 통보...내일 국감 ‘강대강 충돌’ 4 나토 사무총장, 러시아 핵무기 사용 위협에 강력 경고 5 ‘사라져가는 전통 잇는다’ 부여 대조사 미륵대재 봉행 6 서울 도심서 보수단체 3만여 명 대규모 집회...교통 혼잡 7 제1회 봉선사 교리경시대회 회향...창건 1053주년 개산대재 봉행 8 불국사, 불기2566년 제50회 신라문화 영산대재 봉행 BBS 칼럼 전경윤의 ‘세상살이’ 전영신의 ‘시선’ 신두식의 ‘공감노트’ 배재수의 ‘크로키’ 이현구의 ‘스윗 스팟’ 선임기자 칼럼 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 BBS불교방송(재) 서울특별시 마포구 마포대로 20 (다보빌딩) 대표전화 : 02-705-5114 팩스 : 02-705-5229 청소년보호책임자 : 배재수 제호 : BBS NEWS 등록번호 : 서울 아 01259 등록일 : 2010-06-03 발행일 : 2001-09-01 발행인 : 서주영(금호) 편집인 : 전경윤 BBS NEWS 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 BBS NEWS. All rights reserved. mail to webmaster@bbsi.co.kr 위로 전체메뉴 전체기사 경제 정치 전체 20대 국회 국정감사 트럼프 당선 2017 국회 국정감사 2018 남북정상회담 6.12 북미 정상회담 제7회 전국동시지방선거 2차 북미정상회담 21대 국회의원 총선거 제20대 대통령 선거 제8회 전국동시지방선거 사회 전체 2018학년도 대입 수능 뉴스줌인 인터넷 야단법석 문화ㆍ스포츠 전체 2016 리우올림픽 2018 동계올림픽 2018 동계 패럴림픽 2018 러시아월드컵 2018 아시안게임 2020 도쿄올림픽 불교 전체 2018 무술년 신년인사 스리랑카 대통령 방한 제35대 총무원장 설정스님 2017 올해의 사자성어 당신이 연꽃입니다 기획보도 전통사찰을 가다 단박인터뷰 2018 부처님 오신날 2019 차문화대축제 3.1운동 100주년 월주 대종사 원적 2021 신축년 불교계 플랜 국제 전국 전체 전국네트워크 BBS 인터뷰 전체 BBS 전영신의 아침저널 BBS 뉴스파노라마 지방사 인터뷰 BBS 화쟁토론 BBS 경제토크 BBS 뉴스와 사람들 BBS 기획/단독 BBS 칼럼 전체 박경수의 '삼개나루' 전영신의 '시선' 신두식의 '공감노트' 배재수의 '크로키' 전경윤의 '세상살이' 선임기자 칼럼 이현구의 '북악산 자락' 권예진의 거꾸로 세상보기 양창욱의 ‘야단법석(野壇法席)’ 명사 칼럼 김호준의 '내시경' 이현구의 스윗 스팟 BBS 취재수첩 BBS 개국 30주년 BBS 장군죽비 BBS PLAZA 인사/부고 기타 BBS 라디오 TV 알찬뉴스 지난 뉴스 다시보기 이전기사 전체메뉴닫기</t>
+    <t>제주도관광협회, 제17차 제주관광포럼 개최 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제17차 제주관광포럼 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 제17차 제주관광포럼 개최 기자명 고병수 기자 입력 2018.10.30 05:26 수정 2018.10.30 06:37 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도관광협회(회장 김영진)는 31일 제주칼호텔에서 ‘제17차 제주관광포럼’을 개최한다고 밝혔다.이번 포럼에서는 제주대학교 관광경영학과 홍성화 교수가 “제주 관광시장 환경변화와 대응”을 주제로 발표하며, 오상훈 제주대학교 교수(제주관광포럼 공동대표)가 좌장을 맡아 전문가 토론을 진행한다. 전문 토론 패널로 서울관광재단 홍재선 전략기획팀장, 트래블인사이트 편성희 발행인, 국내여행업분과 강인철 위원장, WE호텔 현계담 총지배인, 제주한라대학교 이보연 교수 등 도내․외 각 분야 전문가, 업계 관계자가 참석해 열띤 토론을 벌일 예정이다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 중소 관광사업체 ‘SNS 마케팅' 특강 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도관광협회, 중소 관광사업체 ‘SNS 마케팅' 특강 파이낸셜뉴스입력 2018.10.28 13:21수정 2018.10.28 14:27 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 [제주=좌승훈 기자] 제주도와 제주도관광협회(회장 김영진)는 지난 26일 제주종합비지니스센터에서 중소 관광사업체 실무자를 대상으로 '블로그 마케팅' 특별교육·컨설팅을 실시했다. 이번 교육·컨설팅은 도내 실전 마케팅 교육 전문기관 고르라㈜ 이동환 이사와 보조 강사들이 참석해 홍보마케팅 방안으로서 블로그 마케팅 기본교육을 가졌다. 또 블로그 마케팅을 전개하고 있는 사업장의 매출 증대를 위한 스킬 컨설팅 등도 병행됐다. 관광협회 측은 "제주관광 질적 성장과 관광사업체 자체 경쟁력 확보를 위해 SNS 마케팅 등 다양한 교육을 지속적으로 실시해 나가겠다"고 말했다. 관광협회 측은 오는 11월 30일과 12월 14일에도 온라인 마케팅 특강 제주첨단과학기술단지 내 제주종합비지니스센터에서 마련한다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제17차 관광포럼 31일 &lt; 실시간뉴스 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 11:33 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제17차 관광포럼 31일 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 실시간뉴스 제주도관광협회, 제17차 관광포럼 31일 기자명 진기철 기자 입력 2018.10.29 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회(회장 김영진)는 오는 31일 제주칼호텔에서 ‘제17차 제주관광포럼’을 개최한다.이번 포럼에서는 홍성화 제주대학교 관광경영학과 교수가 ‘제주 관광시장 환경변화와 대응’에 대해 주제발표를 한다. 이어 오상훈 제주대학교 교수(제주관광포럼 공동대표)가 좌장을 맡아 전문가 토론을 진행한다.전문 토론 패널로는  홍재선 서울관광재단 전략기획팀장, 편성희 트래블인사이트  발행인, 제주한라대학교 이보연 교수 등이 참석, 열띤 토론을 벌일 예정이다. 진기철 기자 jjphoto@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 제주 한림 목조 펜션서 불…인명피해 없어 JDC, 투자희망 기업 대상 파트너스데이 개최 도내 주유소 가격 투명성·안정에 ‘안간힘’ 제주도내 고용상황 회복세 기조 유지 전기료 인상에 광어 업계 속 타는데 제주어류양식수협은 ‘수수방관’ 포토뉴스 제주 한림 목조 펜션서 불…인명피해 없어 JDC, 투자희망 기업 대상 파트너스데이 개최 도내 주유소 가격 투명성·안정에 ‘안간힘’ 제주도내 고용상황 회복세 기조 유지 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 4 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>“제주도, 관함식 찬성 강정주민 대상 크루즈관광 지원” :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 “제주도, 관함식 찬성 강정주민 대상 크루즈관광 지원” 등록 2018.10.25 14:43:26 작게 크게 도의회 행자위, 민군복합형관광미항갈등해소지원단 대상 행정사무감사 【제주=뉴시스】제주항에 입항하는 크루즈. 사진은 기사 내용과 직접적인 관련이 없음. (사진=뉴시스DB) 【제주=뉴시스】조수진 기자 = 제주도가 국제관함식의 제주해군기지 개최에 찬성했던 일부 강정마을 주민을 대상으로 해외 크루즈관광을 지원한 사실이 드러나 논란이 일 전망이다. 제주도의회 행정자치위원회 소속 도의원들은 25일 오전 제365회 임시회 도 민군복합형관광미항갈등해소지원단을 상대로 벌인 행정사무감사에서 이 문제를 지적했다. 도 해양산업과는 서귀포 강정 크루즈항의 개항을 앞두고 선진 크루즈 기항지를 체험한다는 명목으로 지난 17일부터 22일까지 일본 나가사키·가고시마 등을 방문하는 ‘크루즈산업 선진지 시찰단 운영사업’을 추진했다. 시찰단은 해양산업과장을 포함한 관계 공무원 4명과 강정마을 주민 11명, 여행업체·기타 9명 등 총 24명으로 구성됐다. 이 과정에서 국제관함식의 제주 유치에 찬성하는 주민으로만 시찰단이 구성돼 사업 추진 시기 및 참가자 모집 방식이 부적절했다는 지적이다. 【서귀포=뉴시스】조수진 기자 = 27일 오후 강정마을 해군기지 반대주민회가 제주 서귀포시 강정동 민군복합형관광미항 정문에서 기자회견을 열어 국제관함식 개최를 추진하는 정부를 규탄하고 있다. 2018.09.27. susie@newsis.com 홍명환 의원(더불어민주당·제주 이도2동갑)은 “시찰단 명단 확정일이 9월19일이다. 관함식 개최와 관련한 (마을주민 간)갈등이 심화되고 있는 와중에 한쪽에선(해군기지)정문에서 시위를 하고 한쪽에선 이미 9월부터 (찬성 주민을 대상으로)크루즈 시찰을 은밀하게 진행했다”라며 “도가 새로운 갈등을 야기하고 있다”고 질타했다. 강철남 의원(더불어민주당·제주 연동을)은 “관함식 관련해서 행사 개최 반대 시위까지 일어나는 상황에서 도가 지역주민에게 ‘크루즈 여행에 참가하라’고 모집하는 건 무슨 일이냐. 반대하는 주민은 강정 주민이 아니란 말인가”라며 “갈등을 해소하고 소통해야 할 행정이 오히려 갈등을 부추기고 있다”고 강도높게 비난했다. 정민구 의원(더불어민주당·삼도1·2동)은 “크루즈산업 시찰단 명단을 보니까 국제관함식(유치를)반대한 사람은 없는데다 행정사무감사 기간에 해양산업과 과장이 같이 갔더라”며 “관련 부서가 아니라지만 민군복합형관광미항갈등해소지원단이 해당 내용을 파악해야 한다”고 지적했다. 이에 고오봉 도 민군복합형관광미항갈등해소추진단장은 “해당 사업은 해양산업과가 주관했기 때문에 사전에 미리 알지 못했다”라며 “향후 (강정마을)관련 사업은 타 부서가 추진한다고 해도 예산 편성 단계에서 저희 부서와 협조하며 논의할 수 있도록 하겠다”고 답했다. susie@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>진에어, 제주도 떠나는 가족에 관광이용권 1000장 쏜다 메인메뉴 바로가기 컨텐츠 바로가기 닫기 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2022년 10월 11일 화요일 닫기 특별영역 배너 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 인사이드칼럼 기자수첩 인터뷰 인사·부고 정치 청와대·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 문화일반 이슈 포토 영상 오토in 골프in 팜이데일리 마켓in 글로벌마켓 스냅타임 기자뉴스룸 사진공모전 search search #인기검색어 특징주 디지털화폐 이재명 테슬라 G6 e 경제 로봇 이데일리 단독 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 팜이데일리 마켓in 스냅타임 진에어, 제주도 떠나는 가족에 관광이용권 1000장 쏜다 ‘온 가족 제주여행’ 이벤트…가족끼리 뭉치면 혜택 듬뿍가족 3명 이상 모이면 일반운임 20% 할인 혜택 등록 2018-10-27 오전 7:00:00 수정 2018-10-27 오전 7:00:00 가 가 이소현 기자 기자구독 페이스북 트위터 메일 프린트 스크랩 url복사 진에어 B7373-800(사진=진에어)[이데일리 이소현 기자] 진에어(272450)가 ‘온 가족 제주여행’ 이벤트를 12월17일까지 진행한다.27일 진에어에 따르면 ‘온 가족 제주여행’ 이벤트는 진에어의 가족할인 운임제도를 통해 11월7일부터 12월24일 사이 출발하는 제주행 국내선 예매 고객에게 제주도 관광 이용권 1000장을 선착순으로 제공한다.당첨자 명단은 11월6일과 20일, 12월4일과 18일 총 네 차례에 걸쳐 진에어 홈페이지를 통해 발표한다.제주도 관광 이용권은 해적잠수함 승선권과 제주민속촌 입장권, 가파도와 마라도 승선권 등으로 준비했다. 가족 운임 할인을 통해 예매를 완료한 고객들은 진에어 홈페이지 내 이벤트 페이지에서 가족들과 함께 가고 싶은 곳 하나를 선택해 응모하면 된다.진에어의 가족운임 할인은 본인과 배우자의 직계존비속 가족 3명 이상이 동일한 여정으로 국내 항공권을 예매할 때 일반 운임인 ‘지니’ 클래스의 20%를 할인해주는 제도다. 통상 3명 이상이 함께 다녀 여행비 부담이 큰 가족 여행의 특성을 고려해 진에어는 2008년 국내 처음으로 도입해 현재까지도 유일하게 운영하고 있다. 해당 할인은 홈페이지나 모바일 항공권 예매 시 추가할인에서 선택할 수 있으며 고객서비스센터를 통해 유선상으로도 신청할 수 있다. 주요뉴스 "내 노후 어쩌나" 국민연금 상반기 적자 76조 6600억 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 선우은숙, 4살 연하 유영재 아나운서와 재혼 혼인신고 마쳐 [공식] # 진에어 # LCC 저작권자 © 이데일리 - 무단전재, 재배포 금지 뉴스레터 구독 | 지면 구독 실시간급상승 뉴스 1전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2[누구집]남궁민 7년 열애끝 웨딩마치, 신혼집은? 3선우은숙, 4살 연하 유영재 아나운서와 재혼 "혼인신고 마쳐" [공식] 4“혜민스님, 따가운 시선에 상처받아”… ‘풀소유’ 논란 2년만에 포착 53선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 카드뉴스[카드뉴스] 2022년 10월 11일 오늘의 운세 오늘의포토 왼쪽 오른쪽 [포토]'파퀴아오와 대결' DK YOO "기부 경기지만 진짜로 싸우겠다" [포토]깊어가는 가을을 즐기세요! [포토]'국정감사 출석하는 최재해 감사원장' [포토]간담회에서 발언하는 김현숙 여가부 장관 [포토]오세훈 시장, 2022 서울워크에서 청년들과 '토크 콘서트' [포토]대체공휴일에 열린 집회 [포토]건강한마당, 댄스 배우는 시민들 [포토]쌀쌀해진 날씨, 겨울옷 입은 나무들 [포토]상춘객 유혹하는 하얀 코스모스 [포토]금리인상에 '영끌'은 옛말...2030 서울 아파트 매입 비중 '뚝' 소셜 댓글by LiveRe 많이 본 뉴스 뉴스 증권 연예 1 전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2 “혜민스님, 따가운 시선에 상처받아”… ‘풀소유’ 논란 2년만에 포착 3 그녀의 비밀계약… 90년대 ‘강남 큰손’ 조춘자의 거짓말이었다 4 3선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 5 '월급 500만원' 아이엠 택시기사 "콜·예약 시스템으로 수익 다변화" 6 대통령 직접 방문했지만…국공립 어린이집 예산 19% 삭감 7 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 8 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 9 송가인, 목포콘서트→팬미팅 '바쁘다 바빠' 10 '음주측정 거부 체포' 신혜성 "변명의 여지 없다..죄송" 1 삼성전자마저…코스피, 3분기 실적 대참사 시작되나 2 "금리 급등하는 지금이 적기" vs "섣불리 덤볐다가 큰코다쳐" 3 스팩합병 전성시대…역대급 흥행에 덩치 커진다 4 글로벌 기업들 ESG 속도 내는데 G에 발묶인 한국 5 KPMG, '아시아 최우수 리스크 컨설팅펌' 선정 6 [미리보는 이데일리 신문] 수리남 제작사도 참패…고금리에 기업 돈줄 마른다 7 상장사 10곳 중 1곳 주가 1년새 '반토막' 8 [뉴스새벽배송]월가 황제 “S&amp;P 3000선 붕괴”…미 증시 또 약세 9 美 CFA협회 "ESG 자격증 도입, 韓 거버넌스 개선 기대" 10 HLB생활건강 "새치 커버 샴푸에 논란중인 염모제 성분 없어" 1 선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" 2 임창정·서하얀, 고급 빌라서 아파트로… "이사만 7번째" 3 [e갤러리] '헝가리식' 우연이 만든 주름…시몬 한타이 '수채화' 4 '역설의 장미'…장밋빛에도 저마다 사연이 있다 [e갤러리] 5 '작은 아씨들' 김고은, 10월 배우 브랜드 평판 1위 6 '아바드림' 오승근, 故 김자옥과 생사초월 듀엣 감동 7 '얼죽연' 최시원, 장난→진중 퍼펙트 남사친 열연…역시 '로코' 장인 8 '미우새' 김준호, 조기 퇴근 걸고 처절한 몸부림 '폭소' 9 '고딩엄빠2' 19세 엄마 김가연, 4세 딸 발달 장애 검사 결과에 '오열' 10 '삼식이 삼촌' 송강호→변요한·이규형·서현우 캐스팅 라인업 완성 [공식] 바이오 투자 길라잡이 팜이데일리 왼쪽 오른쪽 알지노믹스, 간암 치료제 美FDA 임상시험계획 승인 퓨쳐켐, 전립선암 치료제 'FC705' 멕시코 특허 취득 에이비엘바이오, 암 단백질 'B7-H3' 타깃 단독항체 일본 특허 취득 지씨씨엘 "당화혈색소측정 'NGSP' 최고 레벨 획득" 코아스템 “자사 루게릭병 치료제, 대조군比 생존기간 5.6년 길어”...FDA 통과 ‘청신호’ 스무살의 설레임 스냅타임 왼쪽 오른쪽 유튜브 고유 아이디 ‘핸들’ 기능 추가...이름쟁탈전 벌어질까 2022년 10월 11일 오늘의 운세 2022년 10월 10일 오늘의 운세 경기도, 도민과 함께 576돌 ‘한글아 놀자’ 행사 ‘고딩엄빠’는 환상, 이 잔인한 통계를 보라 재미에 지식을 더하다 영상+ 왼쪽 오른쪽 이제부터가 진짜 하락장이다 JW중외제약, 1500억 혈우병 치료제 시장 통째로 삼킨다 아름다운 빛으로 풀어낸 정조의 꿈 수원, 정조의 발자취를 따라서 1기 신도시 마스터플랜이 뭐길래 두근두근 핫포토 우승 가자! 北 전술핵운용부대 '드레스를 조심해' "어이가 없네" 왼쪽 오른쪽 당신의 드림카는?ㅣ오토in 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 나이스 샤아앗~ㅣ골프in [포토]박민지 '시즌 5승 만들어준 볼입니다' 왼쪽 오른쪽 이슈기획 ㅣ 2022 국정감사 "비위판사 연금 깎겠다던 법원, 여론 잦아들자 '도입 불가'"[2022국감] 이슈기획 ㅣ 금리 인상 여파 "한은 금통위, 10월 이어 11월도 빅스텝 나설 듯" 이슈기획 ㅣ 집값, 폭락 vs 그래도 상승? 수억씩 `뚝뚝`…부동산 한파에 뉴타운도 ‘악’ 소리 이슈기획 ㅣ 尹 대통령 비속어 파문 尹대통령 “그냥 먹어도 되나?”… 김남국 “큰형님 마냥 습관적 반말” 이슈기획 ㅣ 신당역 역무원 피살 사건 '신당역 스토킹 살인' 전주환, 오는 18일 재판절차 시작 오늘의 주요 기사 월가 황제 "고통 속 S&amp;P 3000선 붕괴"…바닥 안 보인다 "내 노후 어쩌나" 국민연금 적자 '76조 6600억' 정진석 “조선은 썩어서 망해”…野 “친일 앞잡이, 천박” 맹비난 .국감 취재하던 기자, 화장실서 심정지로 쓰러져…병원 이송 .선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" .쇼핑몰 대박 난 강민경, '65억 건물' 매입해 신사옥 입주 ."尹, 한동훈 애정어린 눈으로"...'이재명 대북코인' 부메랑? .상폐 심판대 선 신라젠..16만 개미 눈물 닦을까 .코레일, GTX 개통 시 연간 1000억원 손해…재무건전성 ‘빨간등’ 알립니다 2022년 하반기 경력기자 모집 제9회 이데일리 사진공모전 당선작 안내 이데일리 주식회사 제22기 결산공고 뉴스레터를 신청하세요 확인 IR 멤버스 - 한국조선해양, 연료전지 대형선박 실증 나선다 - 한국조선해양, 오세아니아 지역서 LNG선 3486억원에 수주 - 현대삼호중공업 LNGC 1척 수주…계약금액 3468억원 이데일리ON - 2020년 9월 19일 모닝브리핑 - 2022년 9월 16일 모닝브리핑 - [이데일리ON 강민] 9/15 매매전략 문화 · 행사 문화대상 전략포럼 W페스타 마라톤대회 캠핑요리 국제금융컨퍼런스 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.krI 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 발행인 곽재선 I 편집인 이익원 Family site 이데일리TV 스냅타임 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 이데일리 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
+  </si>
+  <si>
+    <t>제주도, 제22회 섬 관광정책 포럼 참가 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 제22회 섬 관광정책 포럼 참가 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 제22회 섬 관광정책 포럼 참가 신동원 기자 headlinejeju@headlinejeju.co.kr 승인 2018.10.24 18:18 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주관광공사 섬 관광정책(ITOP) 포럼 사무국은 24~25 양일간 말레이시아 페낭에서 열리는 '문화, 예술, 자연을 잇다(Connecting Culture, Arts and Nature)'를 주제로 한 제22회 ITOP 포럼에 참가했다고 밝혔다.이번 포럼은 개최국인 말레시이사 페낭지역의 주제발표를 시작으로 제주, 스리랑카 남부주, 필리핀 세부, 중국 하이난, 일본 오키나와, 인도네시아 발리의 순으로 각국 지사.성장 발표가 됐다. 제주에서는 양기철 제주도 관광국장이 참석해 관광객 급증에 따른 난개발, 환경훼손, 쓰레기 문제, 하수처리 포화, 교통문제 등의 부정적 이슈와 이를 해결하기 위한 항공, 항만, 교통 상하수도 등 물리적 수용력 확대, 청정 제주를 위한 카본프리 아일랜드 2030 프로젝트, 지속가능한 관광성장을 위한 수용력 관리, 세계 환경 수도 제주로의 위상 강화, 주민주도 지역관광 활성화, 자연가치를 보존하는 생태관광 등 제주도의 노력을 소개했다.이어 각 지역 실무대표들이 한 자리에 모여 섬 관광정책(ITOP) 포럼의 향후 발전방향 모색 등을 위한 실무대표회의가 열렸다. 이 자리에서는 참가 지방정부간 공동서명서 서명식과 현지 언론을 대상으로 한 공동기자회견이 이어졌다.25일에는 개최지인 페낭 지역의 문화, 예술, 자연을 소개하는 심포지엄과 각국 전문가들이 참여하는 지역현안 토론을 위한 전문가 심포지엄이 열린다. 또 회원지역간 공동마켙팅과 가국 지방정부 홍보를 위한 관광박람회도 진행된다. 제주관광공사 관계자는 "이번 포럼은 제22회를 기념하며 섬, 문화, 관광을 잇고 지속가능한 섬 관광의 미래 발전방향을 제시하는 매우 의미 있는 행사가 될 것"이라고 밝혔다. 한편, 섬 관광정책(ITOP) 포럼은 1997년 대한민국의 제주특별자치도와 중국 하이난성, 일본 오키나와현, 인도네시아 발리주가 섬 정부 간에 관광정책 협의 및 지원 등 연대를 하기 위한 목적으로 창설한 공동협의체로, 현재 10개 지역이 회원국으로 참여하고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>"제주도 중국인 관광객 증가세…제주 드림타워 관심 ‘후끈’"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 시세.분양정보 제주도 중국인 관광객 증가세…제주 드림타워 관심 ‘후끈’ 2018.10.24 10:31 -제주도 방문 외국인 관광객 22%↑, 중국인 관광객 증가세 두드러져-면세점 판매액지수, 건축물 거래량 등 모두 증가...회복세 가속화국내관광산업이 회복세를 보이고 있다. 남북관계 개선으로 한반도 내 조성된 평화 분위기가 한국과 중국 간의 관계 복원에도 긍정적인 영향을 미치며, 중국인 관광객이 점차 증가하고 있기 때문이다.실제 지난 10월 국경절(1~7일)을 맞아 한국을 방문한 중국인 관광객은 서울 명동 롯데백화점 본점에서만 약 100억원을 지출한 것으로 알려졌다. 이는 전년 동기간 대비 30% 가량 증가한 액수다. 또한 전자결제 플랫폼 ‘알리페이’가 중국 국경절 기간 동안의 해외결제 규모 및 결제동향을 분석한 결과, 이 기간 중국인 관광객이 가장 많은 금액을 지출한 곳은 서울 명동인 것으로 집계됐다고 밝혔다.중국인들이 선호하는 제주도 역시 관광객이 증가하는 모습이다. 제주관광공사에 따르면, 지난 7월 제주도를 방문한 외국인 관광객은 총 11만4159명인 것으로 집계했다. 이는 지난해 동기간 대비 21.51% 증가한 것이다. 특히 중국인 관광객은 6만5723명으로 전체 외국인 관광객의 57.57%를 차지하고 있으며, 이 기간 동안 61% 증가했다.중국인 관광객은 올 4월 4만4257명, 5월 5만10명, 6월 5만7754명, 7월 6만5723명 등으로 꾸준히 증가세를 보이고 있는 상황이다.소매판매 수치도 증가세다. 올해 2분기 시∙도 서비스업생산 및 소매판매 동향 자료(출처: 통계청)를 보면 제주도 소매판매는 전년 동분기대비 17.4% 증가했으며, 전분기(1분기, 6.6%)에 비해서도 10.8%로 확대됐다. 특히 면세점판매액지수가 전년동기 대비 57.9%가 늘어났다.상황이 이렇다 보니 제주도 부동산 시장 움직임도 활발해지고 있다. 한국감정원에 따르면, 지난 8월 제주시 건축물 거래량은 1512건으로 거래량이 바닥이었던 지난 2월(1419건) 대비 6.55% 증가했다. 이 기간 동안 전국 건축물 거래량이 6.19%(17만8385건→16만7326건) 감소한 것과 상반된 분위기다. 특히 제주시 상업업무용 건축물 거래건수는 60.37%(424건→680건) 증가하며 두드러지는 모습을 보였다.업계 관계자는 “제주도 관광산업에서 중국인 관광객이 차지하는 비중이 상당히 높기 때문에 중국인관광객 증가는 제주 경제 전반은 물론, 부동산 시장에도 큰 호재로 작용할 수 밖에 없다”며 “전반적인 제주 시장 분위기 개선이 속도를 내고 있는 만큼 그 동안 소외 받았던 유망 수익형 부동산 상품에도 투자자들의 관심이 높아지고 있다”고 설명했다.이 가운데 제주시 중심 상권인 노형동 일대에 조성되는 ‘제주 드림타워 복합리조트’에 대한 수요자들의 관심이 뜨겁다. 제주 드림타워 복합리조트는 제주 관광산업이 살아나면서 막차를 타려는 투자자들이 몰리면서 현재 90%가 넘는 계약률을 보이며 완판을 목전에 두고 있다.제주 드림타워 복합리조트는 지하 6층~지상 38층의 트윈타워로 5성급 호텔(750실) 및 호텔레지던스(850실), 제주 최대규모 쇼핑몰, 11개 레스토랑과 바, 호텔부대시설 등으로 구성된다. 지상 38층 높이 169m로 제주도 최고 높이로 지어지며, 연면적도 총 30만3737㎡ 규모로 여의도 63빌딩 연면적의 1.8배에 달한다.또한 고급스러운 다양한 부대시설도 조성된다. 제주 드림타워 복합리조트에 들어서는 쇼핑시설은 지상 3, 4층에 2만48㎡ 규모로 조성되며, 이는 제주 최대 규모이자 제주 최초의 실내 복합쇼핑몰이다. 특히 젊고 트렌디한 국내 디자이너들의 부띠크숍 60여개와 풍부한 세계 먹거리장소가 어우러져 가로수길, 인사동, 홍대거리 등에서 볼 수 있는 골목길 형태의 스트리트몰로 재현될 계획이다.8층에 조성되는 풀데크도 국내 최대인 4290㎡ 규모다. 풀데크 역시 제주도 건축물 고도제한선보다 높은 62m에 위치하고 있다. 풀데크에는 대형 야외수영장과 아이들을 위한 키즈풀, 여러 종류의 자쿠지, 프라이빗 파티를 위한 카바나, 그리고 풀사이드 바와 바베큐 스테이션이 도입될 예정이다.제주 드림타워 복합리조트는 8년마다 무상 리노베이션을 실시해 건물의 자산가치도 지속할 수 있다. 일반적인 건물의 경우 시간이 흐를수록 노후화되면서 자산가치가 하락하기 마련이지만 제주 드림타워 복합리조트는 매 8년마다 롯데관광개발이 무상으로 리노베이션을 실시해 비용부담을 줄이는 동시에 자산가치를 장기간 유지 및 극대화할 수 있도록 하고 있다.호텔브랜드는 '그랜드 하얏트'로 확정됐다. 최고급 호텔브랜드인 그랜드 하얏트가 1600객실과 11개의 레스토랑과 바, 모든 호텔부대시설의 운영을 맡는 것이다.수분양자는 20년간 연 6%를 확정수익(부가세 포함)으로 지급 받는다. 스탠다드RA타입 기준으로 연 6%의 확정수익을 받는 조건 선택시 연간 4,200만원에 달하는 금액을 받을 수 있다. 더욱이 수분양자는 분양받은 객실의 호텔운영 실적과 상관없이 확정수익을 우선 지급 받는다는 내용의 임대차 계약을 롯데관광개발과 체결함에 따라 공실리스크와 관리비에 대한 걱정도 없다.모델하우스는 성수대교 남단 삼원가든 맞은편인 강남구 언주로 832에 위치해 있으며, 2019년 10월 완공될 예정이다.윤병찬 yoon4698@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도 중문 대표 맛집 ‘갈치왕’, 중문 관광단지 무료 픽업서비스 실시 &lt; 보도자료 &lt; 기사본문 - 투데이코리아 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 2022-10-11 12:14 (화) 홈 로그인 회원가입 전체기사 지면보기 2022.10.11(화) 서울 ℃ 미세먼지 B 경기 8.1℃ 미세먼지 B 인천 ℃ 미세먼지 B 광주 ℃ 미세먼지 B 대전 ℃ 미세먼지 B 대구 ℃ 미세먼지 B 울산 ℃ 미세먼지 B 부산 11.6℃ 미세먼지 B 강원 ℃ 미세먼지 B 충북 ℃ 미세먼지 B 충남 8.2℃ 미세먼지 B 전북 ℃ 미세먼지 B 전남 ℃ 미세먼지 B 경북 10.9℃ 미세먼지 B 경남 ℃ 미세먼지 B 제주 16.1℃ 미세먼지 B 세종 ℃ 미세먼지 B 전체메뉴 버튼 4차산업 6차산업 산업이슈 대기업 유통/생활경제 자동차 IT/스마트폰 건설 산업일반 경제·금융 경제일반 금융 증권 부동산 정책 사회 사회일반 사건·사고 법원·검찰 전국 인사 부고 정치 청와대 국회·정당 정치일반 오피니언 투코칼럼 귀촌다이어리 기자수첩 인터뷰 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 중문 대표 맛집 ‘갈치왕’, 중문 관광단지 무료 픽업서비스 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 보도자료 제주도 중문 대표 맛집 ‘갈치왕’, 중문 관광단지 무료 픽업서비스 실시 기자명 김도훈 기자 승인 2018.10.26 13:44 수정시간 2018.10.26 13:44 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [투데이코리아=김도훈 기자] 가을바람이 쌀쌀해지는 요즘, 가을여행으로 제주도를 찾는 여행객들이 줄을 서고 있다. 주말이나 늦은 휴가철대신 남쪽의 보물 제주도를 찾는 사람들이 해마다 증가하는 추세이다. 더욱이 지금 제주도는 다양한 축제와 행사를 진행하고 있다. 서귀포시 자구리 공원 및 거리 일대에서 진행되는 서귀포 칠십리 축제, 제주 성읍민속마을에서 열리는 전통 민속 재연축제, 아름다운 핑크색으로 물들인 휴애리 핑크뮬리 축제 등 지금 제주에는 다양한 볼거리와 가득하다. 또한 많은 관광객들이 제주도를 찾는 이유는 단연 먹을거리다. 제주도 흑돼지구이, 갈치조림갈치구이, 해물뚝배기, 다양한 퓨전음식 등 다양한 음식과 신선한 식재료들로 여행객들을 유혹하고 있다. 이런 다양한 음식들의 향연인 제주도의 곳곳에 위치한 여러 맛집 가운데 제주 현지인들이 찾는 맛집을 고르기는 쉽지 않다. 제주 서귀포 상예동에 위치한 ‘제주 갈치왕‘은 이러한 요소를 두루 갖춘 맛집으로 조명되고 있으며, 제주 현지인들에게 근래 가장 인기 있는 갈치구이, 갈치조림 정식 맛집으로 이러한 내용은 SNS에 많은 콘텐츠들로 확인이 가능하다. 제주 갈치왕은 제주 중문 관광단지 인근에 위치해 오가기 쉬우며, 차편 이동이 어려운 대중교통 여행객들을 위한 픽업/드랍 서비스를 제공하고 있다. 갈치구이와 조림, 돌물어, 활전복, 제주 통갈치가 들어간 ‘통갈치 해물찜’ 세트를 저렴한 가격에 선보이고 있다. 갈치왕 대표메뉴인 ‘갈치조림‘은 싱싱한 제주산 통갈치만 사용하며, 특제양념과 신선한 해물이 어우러진 독특하고 깊은 맛이 특징이다. 갈치왕 대표는 “특히 갈치왕에서 사용되는 모든 갈치는 당일 한림항 서귀포 항에서 직접 경매한 생선을 사용하기에 가격의 중간 거품을 줄이고 풍성한 메뉴를 고객분들에게 제공하기 위해 최선을 다한다“고 강조했다. 어울러 ”제주 중문 맛집 갈치왕은 좋은 식재료를 맛있게 대접하는 중문대표 맛집, 좋은 추억을 만들어드릴 수 있는 식당을 만들기 위해 끊임없이 노력하겠다."고 덧붙였다. 한편 제주 갈치왕은 매일 오전 10시 30분부터 오후 9시까지 연중무휴로 운영되며, 최대 인원을 수용할 수 있다. 또한 음주사고 예방 및 대중교통 손님의 안전을 위해 중문 관광단지 내 숙소까지 이동서비스도 제공한다. 김도훈 기자 통합뉴스룸/산업금융부 8709019@todaykorea.co.kr 투데이코리아는 언제나 독자 여러분들의 제보를 기다립니다. 저작권자 © 투데이코리아 무단전재 및 재배포 금지 많이 본 기사 1 [인터뷰] 김병기 아이들과미래재단 본부장 “아이들이 미래를 꿈꿀 수 있는 세상을 만들고 싶다” 2 [김성기 칼럼] 대우조선 ‘연명 지원’ 중단해야 3 “사회적 합의 이행됐다” 법원, 민주노총 주장 ‘전면 반박’ 4 검찰, ‘불법 외환거래’ 가담자 9명 기소 5 에듀윌 ‘GSAT 온라인 모의고사’ 무료 배포 6 문체부 ‘윤석열차’ 경고에 이수진, “尹 대통령 입에 달고 사는 ‘자유’ 침해” 7 윤홍근 제너시스BBQ 회장 "패밀리 지원 강화..본사가 안고 간다" 8 bhc그룹, ‘창고43 잠실점’ 오픈 9 [국정감사] ‘윤석열차’ 논란에 與·野 공방…박보균 “블랙리스트와 비교할 성격 아니다” 10 박지원 李 대표에게 민주당 복당 내색 비춰...“정치 여정 큰 실수는 ‘安 국민의당’ 합류” 투코칼럼 [김태문 칼럼] ‘전력 공공기관’ 경영난, 임직원들도 책임 크다 [김성기 칼럼] 대우조선 ‘연명 지원’ 중단해야 [전문가 포커스] 피와 땀과 눈물로 일군 K-방산의 성공스토리 [권순직 칼럼] 포퓰리즘, 망국(亡國)으로 가는 길 [박현채 칼럼] 경제 주체 모두 허리띠 졸라 매야 [전문가 포커스] ‘見危授命’을 생각케한 백선엽장군 추모음악회 [데스크칼럼] 재계의 연이은 RE100 선언에 에너지정책 재정비 시급 [김성기 칼럼] 정치권 진흙탕 싸움에 매몰된 민생경제 [권순직 칼럼] 고소 고발 공화국 [전문가 포커스] 英여왕 서거에 ‘노블레스 오블리주’를 생각한다 [박현채 칼럼] 집값, 대세 하락기 돌입 [기고] 물리치료 교육학제일원화로 안전하고, 질 높은 물리치료 서비스 제공 토대 마련해야 조은경 귀촌다이어리 [조은경의 귀촌주부 다이어리] 행복했습니다 기자수첩 [기자수첩] “리튬發 ‘제2의 요소수 대란’ 막으려면…” 정부 노력 절실하다 [기자수첩] 환율 뉴노멀 시대 ‘성큼’···한국은행도 선진국형 경제 정책 제시해야 [기자수첩] 농민 배려 이용한 ‘가짜 농민’…‘돈’에 양심 팔아 넘기나 [기자수첩] ‘정치병’ 걸려 폄하된 ‘미투’의 소리없는 고통 하단영역 하단메뉴 매체소개 윤리강령 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 강남대로 310 ,906 ,907 대표전화 : 0707-178-3820 팩스 : 0707-178-3829 법인명 : (주)투데이코리아 제호 : 투데이코리아 사업자등록번호 : 254-86-00111 등록번호 : 서울 아 00214 등록일 : 2006-06-12 발행일 : 2006-06-12 발행·편집인 : 민은경 주필 : 박현채 논설주간 : 권순직 청소년보호책임자 : 김웅 투데이코리아 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 투데이코리아. All rights reserved. mail to press@todaykorea.co.kr 인터넷 윤리강령을 준수합니다. 위로 전체메뉴 전체기사 4차산업 6차산업 산업이슈 전체 대기업 유통/생활경제 자동차 IT/스마트폰 건설 중기/화학 산업일반 경제·금융 전체 경제일반 금융 증권 정책 부동산 사회 전체 사회일반 사건·사고 법원·검찰 전국 인사 부고 정치 전체 대통령실 국회·정당 정치일반 오피니언 전체 투코칼럼 귀촌다이어리 기자수첩 인터뷰 Series News 전체 보도자료 Investigative News Special News 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[현장사진] 한라산에도 단풍, 제주도 관광 코스 `단풍놀이` 추가 - 매일신문 2022-10-11 (화) 지면보기 기사제보 로그인 회원가입 최신기사 오피니언 정치 경제 사회 국제 문화 스포츠 연예 라이프 포토·영상 최신기사 오피니언 사설 사내칼럼 사외칼럼 매일희평 정치 정치일반 지역정가 대통령실·세종 국회·정당 북한·국방 선거 경제 경제일반 부동산 금융·증권·보험 기업·창업 구인·구직 IT·자동차 사회 사회일반 사건사고 법원·검찰 교육 인사·화촉·모임·부음 이웃사랑 핫뉴스 국제 국제일반 미국·중국·일본 해외토픽 문화 문화일반 음악·공연 미술·전시 문학·책 종교 스포츠 스포츠일반 야구 축구 농구 골프 지역스포츠 연예 연예일반 영화 방송·연예 라이프 라이프일반 여행·축제 맛 건강 독자 운세 포토·영상 영상 포토 그래픽 카드뉴스 [현장사진] 한라산에도 단풍, 제주도 관광 코스 '단풍놀이' 추가 황희진 기자 hhj@msnet.co.kr 매일신문 입력 2018-10-19 10:28:31 수정 2018-10-19 10:28:26 0 가 가 페이스북 트위터 카카오스토리 밴드 네이버블로그 카카오톡 라인 URL복사 19일 제주 한라산 천아숲길 광령천 계곡의 단풍이 장관을 이루고 있다. 연합뉴스 19일 제주 한라산 천아숲길 광령천 계곡의 단풍이 장관을 이루고 있다. 연합뉴스 19일 제주 한라산 천아숲길 광령천 계곡의 단풍이 파란 하늘과 어우러져 장관을 이루고 있다. 연합뉴스 19일 제주 한라산 천아숲길 광령천 계곡의 단풍이 파란 하늘과 어우러져 장관을 이루고 있다. 연합뉴스 10월 19일 기준 제주도 한라산에서도 단풍 경치를 즐길 수 있다. 네이버TV구독 + 유튜브구독 + 최신 기사 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 많이 본 뉴스 일간 주간 월간 [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 [영상] "삼성전자 입주 키이우 건물 러 미사일 폭격 피해"…우크라 정부 "폭발로 최소 8명 사망" 北미사일 발사장에 나란히 선 김정은 부부…귀막고 눈 찡긋 수서~포항 KTX 운행 연내 성사되나…원희룡 "적극 검토할 것" 푸틴의 보복?…우크라 키이우 70일만 미사일 공습 "사상자 발생" 새마을운동중앙회장 맡아 다시 현역으로 돌아온 곽대훈 전 의원 구미 원룸서 40대 여성 숨진 채 발견...살해 용의자 현장서 긴급체포 [대구 시월] "더는 쌀을 구할 방법이 없다"…그해 10월은 민생고가 빚어낸 '폭풍' 경주시립미술관 예정 부지 외지고 유동인구 적어…'유령미술관' 우려 가수 영탁, '센스 있고 활기찬 매력 스타' 1위 차지더보기 [속보] 구미 4공단 공장 화재 "대응 2단계로 격상, 인명 검색 중" [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 칠곡경북대병원 간호사 퇴사 70% '입사 1년차' 구미 年 4천억 매출 기업, 화마로 '셧다운'…지역경제 타격 불가피 대구 'MBC네거리' 새명칭 선정 난항…연내에 다시 논의하기로 홍준표 시장 "대구 미래 산업 될 신수종산업 유치, 반도체 대기업과 협상 중" 등산하다 굴렀다던 아내…알고보니 남편에게 맞아 숨졌다 대구 아파트 전세값 '뚝뚝'…하락폭 비수도권 광역시 '최대' 홍준표, 尹·김건희 풍자 '윤석열차' 두고 "표현의 자유" '尹 식사하느라 英여왕 조문 못했나' 질문에 박진 외교장관, 적극 부인 못해더보기 대전 현대 프리미엄아울렛 화재…지하주차장서 전기차 폭발 추정 호텔수성 또 소송?…이번엔 주차장 갈등, 수성구청 "소송 불사" 전국 어디든 '1시간 50분대'…성주군, 6방향 사통팔달 도시로 태풍 '힌남노' 폭우, 주택 앞마당에 묻어둔 현금 항아리 깨져 "30cm 처마 값으로 45억원 내놔라니"…두류동 재개발 '공중 알박기' 논란 대구 수성못 주변 주상복합 취소 소송, 수성구청 최종 승소 국내 대표 방위산업체 'LIG넥스원·한화시스템' 구미에 4천억 푼다 [속보] 구미 4공단 공장 화재 "대응 2단계로 격상, 인명 검색 중" 13호 태풍 므르복 日 남쪽 아닌 멀리 태평양서 발생 임박 "14호 난마돌 발생 여부 주목" 로또 1033회 1등 당첨지역은? 인천 부평구서만 2곳, 충청 3곳 선전더보기 이슈&amp;뉴스 美 출장은 이재명 수사 목적 주장에 한동훈 "내부 고발 하나" 민주당 "이재명 두산그룹 후원 유치, 칭찬할 일" '포항 참사' 숨진 중학생, 市보험금 못 받아 논란 초등학생 청소 밀대로 때린 교사…3천만원대 합의에도 실형 손톱 10개 합친 길이만 13m…25년째 안 자른 사연은 댓글 많은 뉴스 10 가수 영탁, '센스 있고 활기찬 매력 스타' 1위 차지 5 안철수 "유승민, 당대표 출마 힘들 것…나는 尹 정부 연대보증인" 5 나경원, 이재명 겨냥 "한미일 훈련이 국방참사라니…北에 당하란 말인가" 5 [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 3 "경북지역 노후 저수지 3200곳, 언제 터질지 모른다" 최신기사 오피니언 사설 사내칼럼 사외칼럼 매일희평 정치 정치일반 지역정가 대통령실·세종 국회·정당 북한·국방 선거 경제 경제일반 부동산 금융·증권·보험 기업·창업 구인·구직 IT·자동차 사회 사회일반 사건사고 법원·검찰 교육 인사·화촉·모임·부음 이웃사랑 핫뉴스 국제 국제일반 미국·중국·일본 해외토픽 문화 문화일반 음악·공연 미술·전시 문학·책 종교 스포츠 스포츠일반 야구 축구 농구 골프 지역스포츠 연예 연예일반 영화 방송·연예 라이프 라이프일반 여행·축제 맛 건강 독자 운세 포토·영상 영상 포토 그래픽 카드뉴스 회사소개 광고안내 구독신청 고충처리인운영규정 청소년보호정책 개인정보처리방침 사업제휴 편집윤리규정 윤리자율규제지침 윤리실천요강 본사 : 대구광역시 중구 서성로20 (계산 2가 71번지) 매일신문사 (우 41933) : TEL : (053) 255-5001~7 경북본사 : 경북 안동시 풍천면 수호로 63, 3층(우 36759) : TEL : (054) 855-1700 서울지사 : 서울특별시 중구 세종대로 124 (태평로 1가 25) 한국프레스센터 1801호 (우 04520) : TEL(02) 733-0755~6 인터넷신문등록번호 : 대구,아00201 등록일자 : 2016.11.28 발행인 : 정창룡, 편집인 : 정창룡 Copyright ⓒ MAEIL, All right reserved 댓글 삭제 Close 댓글삭제</t>
+  </si>
+  <si>
+    <t>10월 제주도 가볼 만한 곳 ‘브릭캠퍼스’… 직접 즐기는 체험형 실내관광지로 눈길 로그인 회원가입 UP2030 창업리그 일자리카페 청년리포트 스페셜 리포트 기업과 경제 산업 일반경제 거시경제 은행 보험 카드 서민 증권 건설·에너지 제약·바이오 생활경제 오피니언 전문가 칼럼 데스크 칼럼 기자수첩 사설 전국 네트워크 메트로 인천 수도권 충청 영남 호남 제주 뉴스 정치사회 글로벌 문화 연예 스포츠 AT미디어센터 포럼&amp;컨퍼런스 PDF 보기 2022년 10월 11일 Tuesday 로그인 ㅣ 회원가입 UP2030 창업리그 일자리 카페 청년 리포트 스페셜 리포트 기업과 경제 산업 일반경제 거시경제 은행 보험 카드 서민 증권 건설·에너지 제약·바이오 생활경제 오피니언 전문가 칼럼 데스크 칼럼 기자수첩 사설 전국 네트워크 메트로 인천 수도권 충청 영남 호남 제주 AT미디어센터 뉴스 정치사회 글로벌 문화 연예 스포츠 포럼&amp;컨퍼런스 PDF 지면보기 기사제보 공지.사고 UP2030 스페셜 리포트 기업과 경제 오피니언 전국네트워크 포럼&amp;컨퍼런스 PDF보기 AT미디어센터 포럼&amp;컨퍼런스 PDF보기 10월 제주도 가볼 만한 곳 ‘브릭캠퍼스’… 직접 즐기는 체험형 실내관광지로 눈길 이하나 입력 2018-10-24 12:52 수정 2018-10-23 12:54 [아시아타임즈=이하나 기자] 제주도는 1년 내내 여행객들로 붐비는 국내 대표 관광지 중 하나로 꼽힌다. 아침 저녁으로 선선해진 가을을 맞은 제주도는 평소와 다른 매력으로 관광객들을 사로잡고 있다. 화산섬으로 이루어진 제주도는 자연관광을 감상할 수 있으며 곳곳마다 다양한 볼거리가 있어 남녀노소 누구나 좋아하는 여행지 중 하나로 불리고 있다. 최근 다채로운 관광지들 중 10월 제주도 가볼 만한 곳 중 하나로 '브릭캠퍼스'가 효리네민박, 런닝맨 등 다수의 방송에도 출연하며 입소문을 타고 있다. 이곳은 국내외 최정상 브릭 아티스트 40여 명이 참여해 약 250점 이상의 작품들이 있으며 여러 브릭 작품들을 구경할뿐만 아니라 직접 브릭을 만져보고 체험해 볼 수 있는 체험존도 마련되어 있는 체험형 관광지로 알려져 가족, 연인, 친구와 함께 방문하기 좋은 제주도 여행 명소다. '브릭캠퍼스'는 500평 규모를 자랑하는 야외 정원과 호수, 그리고 곳곳에 꾸며진 제주의 느낌을 그대로 느낄 수 있도록 브릭으로 꾸며진 말풍선과 돌하르방 모형의 포토존 등이 있다. 브릭캠퍼스 내부에는 2002년 월드컵을 그대로 재현해 놓은 경기장 모형이나 오페라 하우스와 같은 나라별 랜드마크 등의 브릭 작품을 한 자리에서 만나볼 수 있어 남녀노소의 눈길을 사로잡는다. 브릭캠퍼스의 볼거리, 즐길거리와 함께 디저트 및 음료가 있는 브릭 카페도 둘러볼 만 하다. 브릭 카페에서는 제주에서 생산되는 특산물로 만든 수제 버거가 브릭 모양으로 만들어져 먹는 맛과 함께 보는 재미를 더해 SNS에 꾸준히 인증샷이 올라오고 있다. 업체 관계자는 "10월 제주도 가볼 만한 곳 브릭캠퍼스는 기상이변이 많은 제주도 여행시 방문하기 좋은 곳으로 알려져 인기몰이를 이어가고 있다"며 "브릭캠퍼스는 제주공항에서 차로 15분 거리에 있어 여행 첫날이나 마지막 날 즐길 수 있어 지리적 접근성이 좋다. 제주공항 근처 가볼 만한 곳이라 불리기도 해 많은 이들의 발걸음이 계속해서 이어지고 있다"고 말했다. 브릭캠퍼스는 매일 9시부터 6시까지 관람할 수 있다. 이하나 편집국 다른기사 보기 asiatime@asiatime.co.kr [저작권자ⓒ 아시아타임즈. 무단전재-재배포 금지] - 띄어 쓰기를 포함하여 250자 이내로 써주세요. - 건전한 토론문화를 위해, 타인에게 불쾌감을 주는 욕설/비방/허위/명예훼손/도배 등의 댓글은 표시가 제한됩니다. 0 /250 등록 중요기사 [포토] “정부·여당 안전운임제 무력화 시도 좌시 않을 것” 코로나19 개량백신 접종 시작…"고위험군 접종 필수" [9월 항공실적] 성수기 지나자 해외여행객 ’뚝‘⋯국제선 8월 보다 14만명↓ [시승기] 아드레날린 '뿜뿜'…기아 'EV6 GT' [뒤끝토크] 5개월째 외친 항공 인력충원 요구⋯이젠 국회의 시간 "中 보고 있나"…K-배터리, 美 IRA·수입처 확대로 반격 타이밍 [포토] “정부·여당 안전운임제 무력화 시도 좌시 않을 것” [아시아타임즈=김영봉 기자] 민주노총 전국공공운수노동조합 화물연대본부(화물연대)가 11일 오전 서울 용산구 대통령 집무실 앞에서 '안전운임개악저지! 일몰제 폐지! 차종·품목확대! 화물연대 투쟁선포 기자회견'을 열고 총파업을 예고했다. 화물연대는 이날 "안전운임제 지속 및 품목확대에 대한 기존의 합의를 뒤집고 안전운임제를 폐지, 무력화 하려는 정부여당의 시도를 좌시 하지 않을 것"이라며 "이에 화물연대는 10월 22일 총파업 결의를 위한 조합원 비상총회를 개최하겠다"고 밝혔다. 국토교통부가 지난달 29일 민생안정경제특위에서 안전운임제가 시장경제원리에 반한다는 의견을 내면서다. 한편 '화물자동차 안전운임제'는 과로, 과속, 과적 운행을 방지하고 도로안전을 위해 필요한 최소한의 운임을 결정하는 제도다. 코로나19 개량백신 접종 시작…"고위험군 접종 필수" 코로나19 개량백신 접종 시작…예약한 날짜에 따라 진행 방역당국, 신규 백신인만큼 이상대응 체계 강화나서 전문가들 "신규 변이·재유행 등의 가능성 높아 접종 필요" [아시아타임즈=이재현 기자] 신종 코로나바이러스 감염증(코로나19) 개량백신 접종이 시작된다. 의학계에서는 면역저하자와 고령층 등 고위험군은 개량백신을 무조건 맞아야 한다고 강조했다. 11일 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가 접종이 시작된다. 이번 접종에 사용되는 개량백신은 코로나19 바이러스 초기주를 기반으로 개발된 기존 백신과 다르게 오미크론 변이 바이러스에도 대응이 가능하도록 개발됐다. 중앙방역대책본부는 개량백신은 기존백신 대비 초기주에는 1.22배, BA.1에 1.75배, BA.4와 BA.5에 1.69배 높은 중화능을 보였다. 중화능은 바이러스를 무력화해 감염을 예방하는 능력을 뜻한다. 지난달 27일부터 시작된 사전예약을 통해 예약한 사람은 이날부터 예약한 날짜에 따라 순차적으로 접종이 시작된다. 면역저하자, 요양병원·시설 등 감염취약시설 입원·입소·종사자, 60세 이상 고령층 등 건강취약계층이 우선 접종 대상이다. 18세 이상 60세 미만 기초접종 완료자도 잔여백신에 한해 개량백신 추가접종을 받을 수 있다. 사전예약 없이 당일 접종을 받으려면 의료기관에 유선으로 연락해 예비명단에 올려 당일 잔여 백신을 접종받을 수 있으며 카카오톡이나 네이버 등 소셜네트워크서비스(SNS)를 통한 잔여백신 확인·예약은 12일 오후 4시부터 가능하다. 방역당국은 개량백신이 새로운 백신인 점을 고려해 시행 초기에는 이상 반응에 더 적극적으로 대응하기로 했다. 접종자 중 문자 수신에 동의한 경우 접종 후 1주일간 능동감시를 통해 건강 상태와 일상생활 문제 여부 등을 확인하도록 하고 접종자 전원을 대상으로 접종 후 3일차 주의 사항과 이상반응시 조치 사항 등을 재안내할 계획이다. 또한 방역당국은 독감백신과 동시에 접종해도 된다고 밝혔다. 신규 변이·재유행 등 가능성 높아…고위험군 접종 필수 전문가들은 올 겨울에 코로나19이 재유행할 가능성이 높기 때문에 고위험군 접종이 필수라고 조언한다. 앞서 앤서니 파우치 국립알레르기·전염병연구소(NIAID) 소장은 미국 언론과의 인터뷰에서 올 겨울에 더 위험한 코로나19 변이가 출현할 수 있다고 경고했다. 미국 질병예방통제센터(CDC)가 발표한 데이터를 보면 지난주 보고된 환자의 79.2%는 오미크론 하위 변이인 BA.5에 감염됐다. 하지만 BA.5와 비슷한 시점에 출현한 BA.4에서 파생된 BA.4.6은 13.6%로 높아졌다. 이같이 기존에 유행하던 코로나에서 변이되거나 아예 새로운 변이가 발생될 가능성을 배제할 수 없다는 것. 국내 전문가들도 같은 의견을 내놓았다. 엄중식 가천대병원 감염내과 교수는 "올해 1분기에 겪었던 대규모 유행이 발생할 가능성은 줄었지만 작은 규모의 유행이 반복될 가능성이 높다"며 "코로나19가 풍토병이나 계절성 질환으로 바뀔 자리매김할 가능성이 높은 만큼 고위험층은 백신 접종이 필수"라고 강조했다. 한 의학계 관계자는 "2가 백신은 지금 유행하는 오미크론을 예방할 수 있기 때문에 효과적"이라며 "향후 어떠한 변이가 나올지는 모르지만 가장 유행하는 백신을 맞는 것이 효과적"이라고 설명했다. [9월 항공실적] 성수기 지나자 해외여행객 ’뚝‘⋯국제선 8월 보다 14만명↓ 9월 항공 여객 수 400만8362명⋯국내선 및 국제선 여객 수 전월 대비 모두 감소 국제선 여객 수는 121만4867명으로 8월 135만4803명 보다 10.3%↓ 성수기 지난 데다 환율 상승 등이 국제선 여객 수 감소에 영향 [아시아타임즈=김영봉 기자] 여름휴가철이 지나자 9월 해외여행객 수요가 전월 대비 10% 감소한 것으로 나타났다. 9월 입국 전 PCR검사 의무화가 폐지되며 국제선 여객 수요를 끌어 올릴 것으로 전망했지만 효과가 크지 않은 것이다. 휴가시즌이 지난 데다 높은 환율 등이 상승세를 꺾은 것으로 분석된다. 10일 아시아타임즈가 국토교통부 항공정보포털시스템의 9월 항공사별 운송실적을 분석한 결과 대한항공과 아시아나항공, 제주항공, 진에어, 티웨이항공, 에어부산, 에어서울, 에어로케이, 플라이강원, 에어프레미아 등 10개 항공사의 여객 수는 400만8362명(국내/국제 포함)으로 지난 8월 454만1753명 보다 11.7%(53만3391명) 감소했다. 이중 국내선 여객 수가 279만3495명으로 전월 318만6950명 보다 12.3%(39만3455명)감소했고, 국제선 여객 수는 121만4867명으로 한 달 전 135만4803명 보다 10.3%(13만9936명) 줄었다. 항공사별로 9월 여객수를 보면 대한항공은 102만8756명(49만5863명/53만2893명)으로 전월 109만8278명(56만9110명/52만9168명) 보다 6.3% 감소했다. 다만 국제선 여객 수는 국내 항공사 중 유일하게 전월 대비 0.7% 소폭 증가했다. 아시아나항공은 9월 여객 수가 72만8971명(39만3251명/33만5720명)으로 지난 달 80만767명(45만2737명/34만8030명) 보다 8.9%줄었다. 이중 국제선 여객 감소율은 3.5%로 나타났다. 저비용항공사(LCC)들도 여객 수가 전월대비 대부분 감소했다. 특히 국제선 여객 수는 코로나19 이후 처음으로 10만명을 돌파하며 상승세를 탔지만, 9월에는 감소세가 뚜렷했다. 제주항공은 9월 58만7543명(49만4272명/9만3271명)을 수송하며 8월 71만3305명(58만7562명/12만5743명) 대비 17.6% 줄었고, 국제선 여객 수는 한 달 사이 25.8% 급감했다. 이어 진에어는 56만2795명(49만2637명/7만158명)으로 전월 64만6063명(53만7725명/10만8338명) 보다 12.8% 감소했다. 국제선 여객 수는 35.2%나 줄었다. 티웨이항공은 49만3536명(40만280명/9만3256명)으로 지난달 50만9810명(39만788명/11만9022명) 보다 3.2% 줄었다. 이중 국제선 여객 수는 21.6% 감소했다. 에어부산과 에어서울의 여객 수도 모두 줄어들었다. 에어부산의 경우 9월 여객 수는 39만9230명(34만4554명/5만4676명)으로 전월 52만6057명(45만3333명/7만2724명) 24.1% 줄었고, 에어서울은 14만549명(11만5658명/2만4891명)으로 8월 16만2030명(12만328명/4만1702명) 보다 13.2% 감소했다. 이외 플라이강원은 9월 3만632명(2만9496명/1136명), 에어로케이는 2만7484명(국내선)을 수송했고, 국제선만 운항하는 에어프레미아는 8864명을 수송하는데 그쳤다. 항공업계 관계자는 “7월~8월 휴가철이 끝나고 9월은 원래 여객 수가 줄어드는 달”이라면서도 “입국 전 PCR 검사 의무화가 폐지되면서 국제선 여행객이 늘어날 것으로 봤는데 오히려 줄어든 것은 아쉬운 대목”이라고 말했다. 이 관계자는 “9월부터 환율이 높아진 영향도 있는 것 같다”면서 “10월은 연휴기간이 많고, 일본의 무비자 입국이 풀려 여행수요가 늘어날 것으로 기대하고 있다”고 덧붙였다. 한편 9월 총 여객 수는 전년 동월 296만3818명(253만583명/16만3235명)보다 48.7% 늘었고, 국제선 여객 수는 644.2% 급증했다. 전문가의 목소리 나하나 칼럼 워라밸이 가져온 예술의 대중화 정균화칼럼 Simple Living 박창진 칼럼 민생 위기 속 정치의 역할 김용훈 칼럼 국가재정의 전략적 운용 신문사소개 개인정보취급방침 이용약관 청소년보호정책 기사제보 제휴문의 공지.사고 서울특별시 중구 퇴계로31길 27 프라임빌딩 8층 대표전화 : 02-801-1800 FAX : 02-801-1819 제 호 : 아시아타임즈 정기간행물번호 : 서울 가 09927 등록일 : 2008-07-16 인터넷신문 : 서울 아 00624 발행인 대표이사 : 조용하 편집국장 : 송남석 청소년보호관리책임자 : 조주현 『열린보도원칙』 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 : 김재현 / TEL : 02-801-1842 / email : s891158@asiatime.co.kr 본 콘텐츠의 저작권은 아시아타임즈 또는 제공처에 있으며 이를 무단 이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. Copyright ⓒ 2019 아시아타임즈 All rights reserved. email : asiatimes@asiatime.co.kr HOME LOG IN Copyright ⓒ 2019 아시아타임즈 All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 국제관함식 기간 장병 공영관광지 무료입장 허용 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 국제관함식 기간 장병 공영관광지 무료입장 허용 등록 2018.10.04 10:35:28 작게 크게 【서울=뉴시스】 해군은 오는 10월 10일부터 14일까지 제주에서 평화와 민군상생을 위한 '2018 국제관함식'을 개최한다고 31일 밝혔다. 사진은 2015년 해군 관함식에서의 해상사열 모습. 2018.07.31. (사진=해군 제공) photo@newsis.com【제주=뉴시스】강정만 기자 = 제주특별자치도는 오는 10일부터 개최되는 2018 국제관함식 기간동안 참가 장병을 대상으로 공영관광지 무료입장과 행사장 내 이동형 관광안내소를 운영한다고 4일 밝혔다. 이번 이벤트는 국제관함식 기간 중 45개국 대표단 1만8000여명이 제주를 방문할 것으로 예상됨에 따라 관함식 행사에 참여하는 내 외국인을 대상으로 제주를 알리고 제주의 매력적인 관광자원을 세계적으로 널리 알리기 위해 추진하고 있다. 행사 기간 중 국제관함식 기획단에서 발급한 표찰 소지자는 유료공영관광지 29개소를 무료로 입장할 수 있다. 도는 도 관광협회와 공동으로 대회기간동안 행사장 내 이동형관광안내소를 운영하여 관광홍보책자 배부와 관광지 홍보 이벤트도 갖는다. 도는 이를 위해  관광지별 홈페이지 및 제주관광정보포털(www.visitjeju.net), 등을 통해 이벤트 내용을 홍보하고 관광홍보안내소와 관광정보센터 등을 통해 관광객 안내에 불편함이 없도록 할 계획이다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>[윤희영의 News English] 제주도 운전면허시험 관광 - 조선일보</t>
+  </si>
+  <si>
+    <t>제주도, 태국 개별관광객 유치 마케팅 본격화 &lt; 전국 &lt; 기사본문 - BBS NEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 11:37 (화) 로그인 회원가입 BBS불교방송 홈페이지 바로가기 상세검색 facebook twitter kakaostory youtube 전체 경제 정치 제 20대 대통령 선거 사회 문화ㆍ스포츠 불교 국제 전국 BBS 인터뷰 BBS 칼럼 BBS 취재수첩 BBS PLAZA 인사/부고 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 태국 개별관광객 유치 마케팅 본격화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주도, 태국 개별관광객 유치 마케팅 본격화 기자명 황민호 기자 입력 2018.10.08 13:28 수정 2018.10.08 14:58 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주관광공사, 태국 방콕에서 제주관광 홍보 추진 태국의 개별관광객을 대상으로 제주관광 유치 마케팅이 추진됩니다.제주관광공사는 지난 6일부터 이틀간 태국 방콕 센트럴월드에서 열린 ‘2018 한국문화관광대전’에 참가해 제주관광 홍보를 추진했다고 오늘(8일) 밝혔습니다.공사는 행사장을 찾은 1만여 명의 태국 소비자를 대상으로 제주 주요 관광지와 축제, 체험활동 등 개별관광객 맞춤 정보를 제공하고 SNS 이벤트를 진행했습니다.제주관광공사 관계자는 “현재 제주와 태국 간 직항노선은 패키지상품을 중심으로 운영이 되고 있다”며 “개별관광객으로 마케팅 대상을 확대할 것”이라고 말했습니다. 황민호 기자 acemino@bbsi.co.kr 다른기사 보기 저작권자 © BBS NEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 정토사회문화회관 개관, '사회공헌·포교'의 전당 ‘모두의 행복 발원’ 영평사에서 낙화전통문화축제 서울의 첫 수도 "한성백제문화제"...9/30~10/3 올림픽공원에서 공군 블랙이글스, 한강공원 에어쇼 우천으로 취소 미륵도량 봉덕사 "희망의 노래 전통차 축전" "건강한 자연 음식을"...봉녕사 사찰음식 대향연 개막 조계종 제37대 총무원장 진우스님 5일 취임 법회...BBS 생중계 정토사회문화회관 개관, '사회공헌·포교'의 전당 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 [코로나19]신규확진 1만명대...오늘부터 개량백신 접종 시작 최신뉴스 국제 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 전국 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 지방사 인터뷰 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 사회 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 경제 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 포토뉴스 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 인기뉴스 1 조계종 제6대 군종교구장에 능원스님 단독 추천 2 관음성지 양양 낙산사, 가을 맞이 사찰음식 나눔 잔치 3 무주 일가족 사상사고...보일러 배기관 막혀 4 러시아, 우크라 전역에 미사일 보복 공습...백여명 사상 5 [뉴스파노라마 한글날 특집] 김영수 관장 "한글, 한국문화 직조하는 씨줄 날줄...귀하게 여겨 잘 썼으면" 6 '하루가 멀다 하고 또'…충북 교육계 성추문 얼룩 7 조계종 제18대 직능대표와 비구니 중앙종회의원 30명 선출 8 은해사 창건 1213주년, 해인사 창건 1220주년.....개산 기념 문화 행사 풍성 BBS 칼럼 전경윤의 ‘세상살이’ 전영신의 ‘시선’ 신두식의 ‘공감노트’ 배재수의 ‘크로키’ 이현구의 ‘스윗 스팟’ 선임기자 칼럼 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 BBS불교방송(재) 서울특별시 마포구 마포대로 20 (다보빌딩) 대표전화 : 02-705-5114 팩스 : 02-705-5229 청소년보호책임자 : 배재수 제호 : BBS NEWS 등록번호 : 서울 아 01259 등록일 : 2010-06-03 발행일 : 2001-09-01 발행인 : 서주영(금호) 편집인 : 전경윤 BBS NEWS 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 BBS NEWS. All rights reserved. mail to webmaster@bbsi.co.kr 위로 전체메뉴 전체기사 경제 정치 전체 20대 국회 국정감사 트럼프 당선 2017 국회 국정감사 2018 남북정상회담 6.12 북미 정상회담 제7회 전국동시지방선거 2차 북미정상회담 21대 국회의원 총선거 제20대 대통령 선거 제8회 전국동시지방선거 사회 전체 2018학년도 대입 수능 뉴스줌인 인터넷 야단법석 문화ㆍ스포츠 전체 2016 리우올림픽 2018 동계올림픽 2018 동계 패럴림픽 2018 러시아월드컵 2018 아시안게임 2020 도쿄올림픽 불교 전체 2018 무술년 신년인사 스리랑카 대통령 방한 제35대 총무원장 설정스님 2017 올해의 사자성어 당신이 연꽃입니다 기획보도 전통사찰을 가다 단박인터뷰 2018 부처님 오신날 2019 차문화대축제 3.1운동 100주년 월주 대종사 원적 2021 신축년 불교계 플랜 국제 전국 전체 전국네트워크 BBS 인터뷰 전체 BBS 전영신의 아침저널 BBS 뉴스파노라마 지방사 인터뷰 BBS 화쟁토론 BBS 경제토크 BBS 뉴스와 사람들 BBS 기획/단독 BBS 칼럼 전체 박경수의 '삼개나루' 전영신의 '시선' 신두식의 '공감노트' 배재수의 '크로키' 전경윤의 '세상살이' 선임기자 칼럼 이현구의 '북악산 자락' 권예진의 거꾸로 세상보기 양창욱의 ‘야단법석(野壇法席)’ 명사 칼럼 김호준의 '내시경' 이현구의 스윗 스팟 BBS 취재수첩 BBS 개국 30주년 BBS 장군죽비 BBS PLAZA 인사/부고 기타 BBS 라디오 TV 알찬뉴스 지난 뉴스 다시보기 이전기사 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 비오는날에 가볼만한 관광지? ‘제주실탄사격장’, 특별한 체험 제공 - 데일리시큐 × 전체기사 산업 이슈 정책 해외 IT&amp;생활 전체 핫이슈 라이프 뉴스 경제일반 이슈 산업 정책 해외 IT&amp;생활 핫이슈 자료실 전체기사 기사검색 기사제보 뉴스레터신청 2022-10-11 12:50 (화) 처음으로 로그인 회원가입 이전 다음 제주도 비오는날에 가볼만한 관광지? ‘제주실탄사격장’, 특별한 체험 제공 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME IT&amp;생활 제주도 비오는날에 가볼만한 관광지? ‘제주실탄사격장’, 특별한 체험 제공 홍채희 기자 승인 2018.10.10 17:55 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 수 많은 이색 즐길거리가 가득한 제주도는 매년마다 많은 커플, 혹은 친구 단위 여행객들이 찾아오는 손꼽히는 여행지다.특히 제주도 중문관광단지는 박물관이나 구경거리와 체험거리가 가득해 남녀노소, 가족여행으로도 안성맞춤 여행지로 추천되고 있다.하지만 여행에 가장 중요한 요소로 손꼽히는 것은 바로 날씨이다. 푸른 하늘에 눈부신 햇살과 함께하는 여행은 즐거운 추억만을 남기지만 먹구름에 비와 바람이 동반되는 악천후 속 여행은 그다지 반갑지 않다.이에 제주도에서는 비오는날 가볼만한 관광지로 손꼽히는 여행지로써 ‘제주실탄사격장’이 존재한다.실내에서 진행되는 ‘제주실탄사격장’은 날씨와 관련없이 도심속에서는 차마 경험하지 못했던 이색체험을 한 번에 누릴 수 있어 더할나위 없이 좋기 때문이다.최근에는 이벤트와 행사 또한 진행하고 있어 단체손님들을 비롯해 커플, 친구 여행객들에게 많은 사랑을 받고 있다. ‘제주실탄사격장’의 직원 마인드 역시 친절하고 상세히 안내해주는 서비스를 진행해 안전하게 모든 과정을 체험할 수 있고 좋은 추억을 간직하고 돌아갈 수 있도록 한다.이곳에서 체험할 수 있는 코스는 총 3가지가 존재한다.신분증이 필수로 요구되어지는 실탄사격과 연령제한이 존재하지 않는 비비탄사격 및 시뮬레이션사격이 있다.실탄사격의 경우 리볼버와 글록 권총이 있다. 각 권총마다 실탄의 크기가 다르며 또한 각 칸마다 고글이 설치되어 있고 모든 사격 시에는 직원이 동행해 사용방법과 안전수칙 등을 친절하게 설명해주기 때문에 걱정없이 체험해볼 수 있다.이 외에도 재밌는 형식으로 진행되는 비비탄사격체험과 시뮬레이션사격체험 역시 남녀노소 구분없이 가능해 인기가 좋다.한편 ‘제주실탄사격장’ 관계자 말에 의하면 “중문관광단지 근처 위치해 있기 때문에 보다 간편하게 찾아올 수 있으며 이색적인 체험 경험을 쉽게 해볼 수 있으니 더할나위 없이 좋다”라고 전했다. 저작권자 © 데일리시큐 무단전재 및 재배포 금지 홍채희 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 많이 본뉴스 1 국제사이버보안인증협회 창립총회 및 발대식 개최 국제사이버보안인증협회 창립총회 및 발대식 개최 2 [박나룡 보안칼럼] 국가의 개인정보 흐름도가 필요하다 [박나룡 보안칼럼] 국가의 개인정보 흐름도가 필요하다 3 한수원-한전KDN, 정규직 채용전환 인턴에 대한 미지급 퇴직금만 2억여 원 4 국회ICT융합포럼, ‘사이버보안 현황과 전략’ 세미나 개최 국회ICT융합포럼, ‘사이버보안 현황과 전략’ 세미나 개최 5 [3보] 스타벅스코리아, 보안문제 지적한 CISO·CPO에 직장내 괴롭힘으로 감봉 처분 [3보] 스타벅스코리아, 보안문제 지적한 CISO·CPO에 직장내 괴롭힘으로 감봉 처분 오늘이 주요뉴스 시스코 제품 보안취약점 주의...최신 버전 사용해야 주의 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 긴급속보 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 정책 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 고학수 제2대 개인정보보호위원장 취임 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 고학수 제2대 개인정보보호위원장 취임 보안자료 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재- 3교시 개인정보 유·노출 예방 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재- 2교시 개인정보의 안전한 관리 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재-1교시 개인정보보호법 주요 내용 (22년) 개인정보보호 수준별 교육_ 공공기관 과정 교육 교재-3교시 공공기관 특화제도 (22년) 개인정보보호 수준별 교육_ 공공기관 과정 교육 교재-2교시 공공기관 관련 개인정보 유출사례분석 및 사후발생 대처 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 송파구 가락로 208, 402호(송파동, 일조빌딩) 대표전화 : 02-400-2908 팩스 : 02-400-2906 청소년보호책임자 : 길민권 법인명 : 제호 : 데일리시큐 등록번호 : 서울 아 02362 등록일 : 2011년 3월 28일 발행일 : 2017-05-01 발행·편집인 : 길민권 사업자 번호 : 301-87-02348 데일리시큐 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 데일리시큐. All rights reserved. mail to mkgil@dailysecu.com 위로</t>
   </si>
   <si>
     <t>살인·절도·폭력 1위는 제주도…"관광지에 맞는 대책 필요" 로그인 회원가입 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 정치 사회 IT.과학 국제 문화 연예 스포츠 경제 산업 금융 증권 건설.부동산 유통 경제일반 오피니언 기자수첩 칼럼 인사 동정 부음 플러스 한줄뉴스 영상 포토 운세/사주 지면PDF 포럼&amp;컨퍼런스 메트로소개 공지사항 네이버 뉴스스탠드 구독설정 구독신청 글로벌 메트로신문 로그인 회원가입 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 정치 사회 IT.과학 국제 문화 연예 스포츠 경제 산업 금융 증권 건설/부동산 유통 경제일반 오피니언 기자수첩 칼럼 인사 동정 부음 플러스 한줄뉴스 포토 영상 운세/사주 독자서비스 지면PDF RSS 공지사항 포럼&amp;컨퍼런스 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 경제 오피니언 포럼&amp;컨퍼런스 지면PDF 정치 사회 IT.과학 국제 문화 연예 스포츠 산업 금융 증권 건설/부동산 유통 경제일반 기자수첩 칼럼 인사 동정 부음 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 경제 오피니언 포럼&amp;컨퍼런스 지면PDF 사회&gt;법원/검찰 살인·절도·폭력 1위는 제주도…"관광지에 맞는 대책 필요" 메트로신문 이범종 기자 ㅣ2018-10-07 14:52:01 뉴스듣기 가 가 가 가 가 권미혁 의원실 인구 1만명당 살인·절도·폭력 발생 1위 지역은 제주도로 나타났다. 더불어민주당 권미혁 의원이 7일 경찰청에서 제출받은 최근 3년간 5대 범죄 발생 건수 확인 결과, 제주도가 인구 1만명당 5대 강력범죄 건수 1위에 올랐다고 밝혔다. 5대 강력범죄는 살인·강도·절도·폭력·성폭력 등으로 경찰청이 별도 관리하는 범죄 지표다. 권미혁 의원실은 제주도가 3년간 인구 1만명당 평균 510건의 강력 범죄가 발생했다고 설명했다. 강력 범죄가 가장 적게 발생한 경북이 106건인데 비해 5배 높은 수치다. 범죄별로 보면, 3년간 전국 평균 발생건수는 살인 0.17건, 강도 0.24건, 절도 39건, 성폭력 4건, 폭력 57.1건이었다. 반면 제주도는 살인 0.31건, 강도 0.47건, 절도 56건, 폭력 85.7건, 성폭력 5.6건으로 모든 강력범죄 발생 건수가 전국 평균을 넘어섰다. 또한 살인, 절도, 폭력은 3년 연속 전국 1위를 차지했다. 제주도민 역시 이 같은 치안에 불안감을 느끼는 것으로 확인됐다. 경찰청이 매년 지역주민을 대상으로 실시하는 체감안전도 점수가 3년 평균 전국 최저인 68.9점이었다고 권 의원 측은 설명했다. 권미혁 의원은 "제주도는 내·외국인 방문객이 많은 국내 대표 관광지인 만큼 지역의 특수성을 고려한 치안 정책이 필요하다"며 "제주도민들이 안전한 환경에서 거주할 수 있도록 제주 경찰은 내·외국인 방문객들을 포함한 범죄를 예방하기 위해 노력해야한다"고 말했다. 메트로신문 이범종 기자 joker@metroseoul.co.kr 다른기사 보기 Copyright ⓒ 메트로신문 &amp; metroseoul.co.kr 회사소개 배포문의 기사제보 제휴문의 고충처리 이메일무단수집거부 청소년보호정책 구독신청 Copyright ⓒ Metro. All rights reserved. (주)메트로미디어의 모든 기사 또는 컨텐츠에 대한 무단 전재ㆍ복사ㆍ배포를 금합니다. 주식회사 메트로미디어 · 서울특별시 종로구 자하문로17길 18   ㅣ   Tel : 02. 721. 9800 / Fax : 02. 730. 2882 문의메일 : webmaster@metroseoul.co.kr    ㅣ   대표이사 · 발행인 · 편집인 : 이장규   ㅣ   신문사업 등록번호 : 서울, 가00206 인터넷신문 등록번호 : 서울, 아02546   ㅣ   등록일 : 2013년 3월 20일   ㅣ   제호 : 메트로신문 사업자등록번호 : 242-88-00131 ISSN : 2635-9219   ㅣ   청소년 보호책임자 및 고충처리인 : 안대성 지면PDF 한줄뉴스 오늘의 운세 오피니언 메트로 소개 Copyright ⓒ Metro. All rights reserved 맨위로</t>
   </si>
   <si>
-    <t>10월 제주도 실내 관광지로 가볼 만한 곳, 이색적인 레고박물관 ‘브릭캠퍼스’ 눈길 &lt; 기타 &lt; 기사본문 - 디트NEWS24 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 칼럼 디트TV 충남 naver-tv youtube facebook 로그인 검색버튼 기사검색 검색 본문영역 현재위치 홈 기타 10월 제주도 실내 관광지로 가볼 만한 곳, 이색적인 레고박물관 ‘브릭캠퍼스’ 눈길 이전 기사보기 다음 기사보기 기자명 이홍규 입력 2018.10.05 10:58 댓글 0 SNS 기사보내기 기사저장 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 청명하고 높은 가을 하늘이 절정에 치닫는 10월이다. 10월은 특히 징검다리 연휴가 많아 연휴와 주말을 껴서 함께 여행 계획을 잡는 이들이 많다. 이 가운데 국내 여행지 중 가장 많은 이들이 방문하는 곳은 바로 제주도다. 제주도는 빼어난 바다 절경 외에도 다양한 테마의 축제 소식 등 10월 제주도 가볼 만한 곳들이 즐비해 있어 알차게 제주도 여행을 즐길 수 있다. 10월 제주도 가볼 만한 곳 중에 방송에도 나온 적 있는 레고 박물관 ‘브릭캠퍼스’가 최근 다양한 즐길 거리와 체험존, 먹거리까지 갖춘 공간으로 입소문을 타고 있어 화제가 된 바 있다. 이곳은 세계 최초로 브릭 작품을 감상할 수 있는 곳으로 국내외 최정상 브릭 아티스트 40여 명이 참여해 250여 점 이상의 작품이 있고, 효리네민박2, 런닝맨 등 방송에도 출연해 눈길을 끌고 있다. 특히 공항에서 차로 15분 거리에 있어 접근성이 좋아 제주공항 근처 가볼 만한 곳으로도 불리며 여행 첫날이나 마지막 날 들르기 좋은 곳으로 입소문을 타고 있다. 제주도 명소 ‘브릭캠퍼스’는 들어가자마자 500평 규모의 야외 정원과 호수가 있고 곳곳에 브릭으로 만들어진 포토존 등이 마련되어 있어 제주도 사진 명소라 불리기도 한다. 실내에는 수도꼭지 모양의 조형물에서 브릭이 쏟아져 내리는 듯한 연출로 상상력을 자극하며, 2002년 월드컵을 재현해 놓은 경기장 모형과 캐릭터, 나라별 랜드마크 등 다채로운 브릭 작품을 한 자리에서 만나볼 수 있다. 또한, 초상화나 브릭 액세서리 등을 만들 수도 있어 연인, 가족, 친구와 함께 방문하는 발길이 끊이지 않고 있다. 브릭 체험 등 여러 즐길 거리와 함께 허기진 배를 달랠 수 있는 브릭 카페는 브릭 모양의 버거와 케이크를 맛볼 수도 있다. 이색적인 비주얼의 메뉴들은 유기농으로 만들어 소비자의 건강과 맛을 동시에 사로잡았다는 평이다. 더불어 제주공항에 있는 큰 조형물은 설문대 할망 제주도 설화를 모티브로 표현해 보는 이로 하여금 궁금증을 불러일으키기도 했다. 해당 업체 관계자는 “최근 아이가 있는 가족단위 관광객뿐만 아니라 키덜트족도 다양한 굿즈샵과 이색적인 브릭 작품을 보기 위해 찾아주신다. 아이랑 함께 혹은 가족이 함께 즐길 수 있는 제주도 여행코스를 생각하고 있다면 브릭캠퍼스는 최고의 선택이 될 것이다. 또한, 네이버로 사전예약 시 정상 가격보다 할인된 가격으로 이용하기 좋으니 참고 부탁 드린다.”고 전했다. SNS에서도 알려진 브릭캠퍼스는 사계절 내내 즐길 수 있는 실내 관광지로 꾸준히 인기몰이를 하고 있다. 이홍규 ehehwn@hanmail.net 기자의 다른기사 저작권자 © 디트NEWS24 무단전재 및 재배포 금지 추천뉴스 지하에 갇힌 사람들, 그리고 지상의 정치인들 감사원 ‘文 서면 조사 통보’에 여야 ‘정면 충돌’ 제40회 금산인삼축제 개막, '다양한 볼거리 먹거리' 대박예감 정진석·이재명 '균형발전' 공언, 충청권 메가시티 '기대감' [현장] “백제문화제가 돌아왔다” 들썩이는 부여 인기기사 주간 일간 1 [현장] “백제문화제가 돌아왔다” 들썩이는 부여 2 3년 만에 만나는 백제문화제 ‘100배 즐기기’ 3 한화이글스, 퓨처스리그 및 U-23 대표팀 연습경기 생중계 4 터크먼 라미레즈 페냐, 한화이글스 '외국인 3인방'의 운명 5 천안 원룸 여자친구 살해 조현진, 항소심서 징역 30년 6 한국타이어 금산공장 다물단, 소년소녀가장 가정에 생필품 전달 7 용산초 학부모들 "모듈러 교실 절대 반대, 등교 거부 하겠다" 8 세종시 비알티 도로 '4시간 집중 단속'... 위험천만 현장 노출 9 서산시 동문2동 다가구주택 화재 10 대전은 소유권 이전 등기 전까지 전매제한 1 제1회 세종시 ‘어울링 바이크’ 투어... 오는 7일 접수 마감 2 세종서 시행 앞둔 '일회용 컵 보증금 반환제' 불편 우려 3 조승래 “연구비 부정 사용 과기부 연구개발사업 350건” 4 박영순 “정부까지 언론 상대 소송, 윤 정권 언론 길들이기 노골화” 5 천안시, 대규모 점포와 상생 도모 6 천안시설관리공단, 지역사회 화재 예방을 위한 ‘안전지킴이’ 7 새마을문고충남도지부, 2022 새마을문고지도자 교육 및 워크숍 실시 8 천안상록리조트, 수신면 독거노인 가구 사랑의 집수리 봉사활동 9 대덕구-나눔복지재단, 육아복합마더센터 운영 위수탁 협약 10 충남대, 2022년 세종도서 7권 선정 실시간 댓글 최신댓글 댓글많은기사 1 삼가 고인의 명복을 빕니다. 2 높아지기는 모습도 연출했다. 오타가 있네요 3 듣기 싫고 거북하면 , 안 하면 댜 !~~~ 4 자세한 내용은 모르지만 시민단체 어쩌고 하는 떨거지들과 거리를 유지하는 건 정말 잘하는 일이다 5 모듈라가 대전뿐이아니고 전국적으로다가 다허고있는디 대전만 금태둘럿네 6 애들 돈주는거는 좌파우파 안가리고 모든지로다가 대찬성이여 7 흐미 물감 아까워 8 손자라고 해서 그렇지 아들이라고 했으면 기분좋아서 그날 기분째졌을듯 9 오전부터 회의 영상 보면서 교육청직원들의 업무처리능력에 감탄 했어요 일을 그리 못하면서 월급 받는 능력자 시의원의 질의에 한 건도 명확한 답변이 없는 일 처리 능력이 정말 대단하십니다 10 모듈러교실이 있는곳으로 꼬옥 이사가서 손주들을 보내라 저런 분이 국회의원 되야 교육이 살아남을것인데. 아직 보수가 죽지 않았구려. 내 그대의 팬이 되겠소 1 용산초 학부모들 "모듈러 교실 절대 반대, 등교 거부 하겠다" 2 "손주들 모듈러 교실로 꼭 보내라"..대전시의회, 시교육청 '난타' 3 이상래 대전시의장, 외유논란 사과...제주연수는 취소 4 대덕구의원 8명, 세비 반납도 구정질문도 안한다 5 서철모 서구청장, 본회의장에서 대놓고 의회 무시? 6 위태로운 9대 대전시의회, 애꿎은 사무처에 화풀이? 7 이상래 의장, 첫 정례회-전국의장협의회 불참 '외유 논란' 8 황운하·홍성국, 李에 ‘공공기관·대통령 집무실’ 지원 요청 9 대전 UCLG 총회 ‘반전’ 115개국·2700여 명 참가 등록 10 안장헌 의원, 전형식 부지사에 "좀 배우고 오세요" 직격 하단영역 주요뉴스 논산에 둥지 튼 ‘한국유교문화진흥원’ 문 열었다 엑스포조직위-건양대, 엑스포 성공 개최 업무협약 체결 천안시, 충남체육대회 종합우승...해단식 가져 감사원 ‘文 서면 조사 통보’에 여야 ‘정면 충돌’ 한국효문화진흥원, 10월 효의 달 명인회와 함께하는 기획 전시 대전시교육청, 김진수 부교육감 부임 목원대 컴퓨터공학과 여상수 교수, 대통령 표창 배재대 재학생 ‘2022 순천 전국 학생웹툰 공모전’ 우수상 최만묵 ㈜한남하이텍 대표, 한남대 명예이학박사 학위 수여 충남대, 2022년 세종도서 7권 선정 전체보기 Contact US 대표전화 042-471-8114 팩스 042-471-8120 제보전화 042-471-811424시간 긴급 기사·사건 제보(심야·공휴일) Infomation 매체소개 기사제보 광고문의 이용약관 언론윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 장기간행물등 사업등록증 : 대전 아 00003 등록년월일 : 2001-08-01 제호 : 디트NEWS24 법인명 : (주)디트뉴스24 발행일 : 2001-08-01 발행인 : 박길수 편집인 : 김재현, 박길수 청소년보호책임자 : 박길수 대전광역시 서구 한밭대로 755 (삼성생명) 삼성생명빌딩 703호 대표전화 : 042-471-8114 팩스 : 042-471-8120 [ 디트뉴스24 ] 사업자번호 : 305-81-63253 통신판매업신고번호 : 제2011-대전중구-0243호 Copyright © 2022 디트NEWS24. All rights reserved. naver-tv youtube facebook 위로 전체메뉴 전체기사 정치 전체 국회/청와대 대전 충남 세종 행정 전체 대전 정부대전청사 세종 정부세종청사 충남 경제 전체 건설·부동산 유통 금융 경영·기업 이기업인 창업정보 과학·IT·드론 대전테크노파크 스마트혁신 사회 전체 법원/검찰 경찰 대전 세종 충남 교육문화스포츠 전체 교육일반 초중고 대학 문화일반 공연전시 문학소설 스포츠 책이야기 책 기부 캠페인 내부칼럼 전체 사설 디트의 눈 데스크칼럼 관점 김학용 칼럼 외부칼럼 전체 자문위원 칼럼 자유기고 오광영의 손스피커 대덕구 혁신로드 강영환의 로컬노믹스 여정권의 야구에 산다 한기원 칼럼 권혁필의 새로운 생각 성광진의 교육 통(痛) 이지완의 포토詩세이 김충남의 열두줄 인문학 라창호의 허튼소리 가기천의 확대경 박경은의 힐링에세이 송선헌의 시와 그림 김종진의 행복한 인성 이야기 김경훈의 공감소통 변해섭의 선거법 해설 리헌석의 예술계 산책 정승열의 세계 속으로 송진괄의 신비한 산야초 오정균의 세상만사 박한표의 사진 한 장 강영환의 정치 톺아보기 손창규의 과학 한의학 길공섭의 빛그림 황종규의 술이야기 윤영애의 명리 山海境 디트맛집 전체 대전 세종 충남 언론계 전체 언론계 소식 미디어비평 본사-알립니다 디트메디 전체 의료계 의료인 충남디트 전체 천안·아산 서산·태안·당진 공주·부여·청양 예산·홍성 논산·계룡·금산 보령·서천 디트사이언스 전체 대덕특구 출연연구기관 중기벤처기업 보도자료 전체 대전시 세종시 충남도 동구 중구 서구 유성구 대덕구 기타 사람들 전체 부음 결혼 인사 행사·모임 수상 동정 사람들 우리기관 홍보맨 사람이 미래다 웰빙 전체 여행과 레저 트렌드 TV/연예 전체 TV 연예 대전교육복지소식 전체 교육청소식 학교소식 학생기자단 정보마당 충남체육예술교육 전체 충남도교육청 지역교육지원청 학교소식 미분류 지난연재 기타 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>가을 제주도 관광 명소 TOP3…향토음식 ‘이모밥상’ 한정식으로 든든하게 &lt; 생생! 푸드톡 &lt; 생생! 톡 &lt; 기사본문 - 서울와이어 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 모바일웹 2022-10-04 10:20 (화) 경제/산업 금융/증권 정치/사회 글로벌 부동산 핫이슈 ESG 포토뉴스 영상뉴스 보도자료 인사·부고 더보기 기사검색열기 기사검색 검색 검색닫기 본문영역 이전 기사보기 다음 기사보기 가을 제주도 관광 명소 TOP3…향토음식 ‘이모밥상’ 한정식으로 든든하게 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생생! 톡 생생! 푸드톡 가을 제주도 관광 명소 TOP3…향토음식 ‘이모밥상’ 한정식으로 든든하게 기자명 최선은 기자 승인 2018.10.12 17:02 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 이모밥상 [서울와이어 최선은 기자] 제주가 가장 아름다운 계절, 가을이 왔다. 이 시기 제주는 낭만이 가득한 억새의 황금물결이 일렁이고 햇볕과 바람이 적당해 이곳 저곳 날씨에 구애받지 않고 여행을 즐기기에 딱 좋다. 10월에 찾으면 더 좋은 제주 관광지 몇몇 곳을 소개해 본다. 한라산과 비슷한 시기에 생긴 것으로 알려진 산굼부리는 제주시 조천읍에 위치한 기생화산의 분화구다. 백록담과 비슷한 모습의 산굼부리는 가을이 되면 억새 군락이 바람에 흔들리는 모습이 장관이라 관광객들의 발걸음이 끊이지 않는다. 천연기념물 제263호로 보호를 받고 있는 산굼부리는 입장시간 제한이 있다. 10월에는 오전 9시부터 오후 6시30분까지 운영된다. 산굼부리에서 멀지 않은 곳에 위치한 제주 미니랜드는 제주도에서 세계 곳곳을 찾아가는 체험이 가능한 곳이다. 자유의 여신상, 피사의 사탑 등 각국의 대표 랜드마크들을 미니어처로 만들어 놓아 마치 걸리버가 된 것 같은 기분을 느낄 수 있다. 촬영 포인트가 많아 사진을 찍는 즐거움도 누릴 수 있다. 수목원테마파크는 수목원 입구에 위치한 곳으로 착시 미술을 통한 재미있는 체험이 가능한 곳이다. 수목원테마파크 안에는 아이스뮤지엄도 있는데 이곳은 365일 얼음으로 가득하다. 대형 얼음 미끄럼틀을 탈 수 있으며 다양한 얼음 공예 작품도 만나볼 수 있다. 가을의 제주에는 이처럼 들릴 곳이 많으니 관광 전 든든하게 배를 채우는 것은 기본이다. 제주시에 위치한 '이모밥상'은 제주 향토음식을 전문으로 하는 한정식집이다. 이 집의 대표 메뉴인 제주향토한정식은 저렴한 가격에 돔베고기, 전복구이, 옥돔구이 등 제주의 귀한 식재료를 이용한 요리는 물론 해물뚝배기, 양념게장, 잡채, 계란찜 등 열 다섯 가지나 되는 푸짐한 한상차림을 즐길 수 있는 메뉴다. 한정식 메뉴는 다양한 음식이 나오는 만큼 골라먹는 재미를 느낄 수 있다. 가짓수만 늘린 게 아니라 하나하나 맛깔 나게 만들어 남녀노소 누구나 맛있게 먹을 수 있다. 고등어구이, 옥돔구이 등은 단품으로도 판매한다. '맛있는 재료로 맛없는 음식을 만들 수는 있지만 맛없는 재료로는 맛있는 음식을 만들 수 없다'는 말이 있듯이 이 집은 재료의 신선함을 가장 중요하게 생각한다. 매일 식재료를 직접 선별해 최상급 재료만 사용하는 것도 그래서다. 깐깐한 재료를 고르는 만큼 음식을 만드는 주방이나 식사를 하는 홀 역시 깔끔하고 청결하게 관리한다. 제주도 한정식으로 알려진 이 음식점은 제주공항과 가까이 있으며 여러 관광지들과도 가까워 관광객들도 많이 찾는다. 매장이 넓고 대형 주차장을 보유하고 있어 단체 회식이나 가족 모임 시 들리기에 적합하다. 이 집은 연중무휴로 운영되며 운영시간은 오전 10시부터 밤 10시까지다. press@seoulwire.com 최선은 기자 press@seoulwire.com 다른기사 보기 저작권자 © 서울와이어 무단전재 및 재배포 금지 Sponsored AD 당신만 안 본 뉴스 "바이든 쪽팔려서 어떡하나?"… 윤 대통령 염려한 이XX 누구? [글렌다박&amp;] 현빈 '♥손예진'이 챙겨준 아침 식사? 커피 한잔 마셔 ② 출근길 서울지하철 5호선 또 먹통...장애인단체 시위 손흥민, 눈물 흘린 어머니 영상 퍼지자 '벌컥'… "함부로 찍지 말라" [포토] 아이유, 이탈리아로 떠납니다 김정은 딸 처음 포착… 정말 둘째 딸 김주애? 박수홍 형수 200억대 부동산 소유 의혹…어떻게 가능했나 "바이든 쪽팔려서 어떡하나?"… 윤 대통령 염려한 이XX 누구? 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 尹 “北, 무모한 핵도발… 국제사회의 결연한 대응 직면할 것” 'IRA 우려 현실화' 현대차·기아 미국 전기차 판매 감소 과천지식정보타운 핵심 입지, 현대ENG '힐스테이트 과천 디센트로' 선착순 분양 尹, 감사원 서면조사 文 반발에 “대통령 언급 적절치 않아” 재정준칙 없으면 2060년 국민 1인당 나랏빚 '1억원' 부담 OPEC+, 하루 100만배럴 감산 검토… 유가 다시 급등 최신뉴스 尹 “北, 무모한 핵도발… 국제사회의 결연한 대응 직면할 것” 'IRA 우려 현실화' 현대차·기아 미국 전기차 판매 감소 과천지식정보타운 핵심 입지, 현대ENG '힐스테이트 과천 디센트로' 선착순 분양 尹, 감사원 서면조사 文 반발에 “대통령 언급 적절치 않아” 재정준칙 없으면 2060년 국민 1인당 나랏빚 '1억원' 부담 핫이슈 대숲맑은 담양쌀 소비, 공무원이 앞장서겠습니다! 떴다! 우리동네 해결사! 안좌면 복지기동대 서해해경청, 유람선 좌초사고 대비 민·관·군 합동훈련 ‘카메라렌즈용 광학소재·부품 허브’ 광주에 들어섰다 인기뉴스 1 마약 최근 손댔다던 돈스파이크… 10년전부터 상습 투약 2 [날씨] 가을비 추적추적...하루종일 '집콕'해야하나 3 카뱅, 4일부터 중신용대출 금리 한 차례 더 낮춘다 4 [산업 이슈 픽] 경기 불황에도 대형 M&amp;A 활발한 이유는? 5 러 '4개지역 병합 선언' 하자마자… 우크라, 동부 요충지 리만 탈환 6 경기도 아파트 매매량 ‘추락’… 평택 185건·과천 2건 7 고덕 뒤이을 차세대 중심주거지 '화양지구'… 한화건설 '포레나평택화양' 분양 8 내일부터 요양병원 접촉면회 허용… 내년 봄 실내 마스크서 해방 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 서비스 전체보기 매체정보 서울특별시 마포구 만리재로 15 (제일빌딩) 10층 1011,1012호 대표전화 : 02-6952-0992 청소년보호책임자 : 김숙영 법인명 : 이슈앤비즈미디어(주) 제호 : 서울와이어 등록번호 : 서울 아 03747 등록일 : 2015-05-21 발행일 : 2015-04-01 발행인 : 편집인 : 김종현 서울와이어 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 서울와이어. All rights reserved. mail to sw@seoulwire.com 한국인터넷신문협회 회원사 위로 전체메뉴 전체기사 경제/산업 전체 생활경제 공유경제 브랜드경제 정치 정상회담 산업 IT 업사이클 금융/증권 전체 금융 증권 정치/사회 글로벌 전체 글로벌 부동산 전체 부동산 핫이슈 전체 정치 정상회담 사회 패션/뷰티 문화 오피니언 인사·동정 사회적기업 인터뷰 정책 방송/연예/스포츠/라이프 전체 방송/연예/스포츠 스타트업 생생! 톡 전체 생생! 주부톡 생생! 알람톡 생생! 푸드톡 생생! 아이톡 생생! 엔터톡 영상뉴스 증시 공시 기획특집 긴급진단 기자수첩 ESG 보도자료 인사·부고 CEO 투데이 메타센서 글렌다박의 블루오션 전체메뉴닫기</t>
+    <t>[전문] 이경용 제주도의회 문화관광체육위원장, 행정사무감사 임하는 입장 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [전문] 이경용 제주도의회 문화관광체육위원장, 행정사무감사 임하는 입장 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 [전문] 이경용 제주도의회 문화관광체육위원장, 행정사무감사 임하는 입장 편집팀 iheadline@hanmail.net 승인 2018.10.15 14:35 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × ▲ 이경용 제주도의회 문화관광체육위원장. ⓒ헤드라인제주 “문화·관광현안에 대한 도민사회 의혹해소와 행정과오 점검과 함께 대안제시도 함께 민선 7기 출범 첫 행정사무감사입니다. 지난 도정과의 연속성 차원에서 원도정이 도민들에게 밝혔던 약속들을 차분히 수행할 준비와 계획을 세우고 있는지에 대해 점검하는 행정사무감사가 될 것입니다. 지금 도민사회 현안이 되고 있는 문화관광정책이 제대로 추진되고 있는지 집중 점검하며 도민들의 의혹해소에 주력하겠습니다. 특히 문화정책과 관련해서는 제주문화예술재단 한짓골 아트플랫폼 건물매입과 타당성, 제주비엔날레 평가와 차기 추진여부, 문화산업의 일자리 연계와 제주 특화성에 대해 점검하겠습니다. 또한 최근 신화역사공원의 오수역류문제 발생사례에서 보듯이 대규모개발사업 추진에 따른 행정과오와 도민사회의 부작용과 우려점에 대해 꼼꼼히 살펴볼 것입니다. 관광객 유치와 투자유치라는 명분으로 그동안 각종 대규모 개발사업의 인허가 절차 승인과정에서 법과 조례를 위반한 사례가 없는지, 특정 개발사업에 대한 특혜우려의 소지가 없는지 면밀히 들여다 볼 것입니다. 이외에도 제주관광의 질적전환, 과잉관광의 문제, 대형카지노 확산문제, 도민고용과 지역상생방안 등 도민 체감도를 높이기 위한 정책효과를 제대로 발휘하고 할 수 있는지에 대해 집중적인 점검을 통해 행정의 과오와 실책을 바로잡는데 중점을 둘 것입니다. 이번 행정사무감사기간 동안 문화관광분야의 정책점검을 통해 행정의 문제점 지적과 개선요구뿐만이 아니라 보다 발전적인 대안제시도 함께 모색하여 내실있는 행정사무감사가 될 수 있도록 최선의 노력을 다해나가겠습니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 행정사무감사 '고강도 감사' 예고..."하수역류, 재밋섬 등 의혹 규명" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>10월 제주도 실내 관광지로 가볼 만한 곳, 이색적인 레고박물관 ‘브릭캠퍼스’ 눈길 &lt; 기타 &lt; 기사본문 - 디트NEWS24 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 칼럼 디트TV 충남 naver-tv youtube facebook 로그인 검색버튼 기사검색 검색 본문영역 현재위치 홈 기타 10월 제주도 실내 관광지로 가볼 만한 곳, 이색적인 레고박물관 ‘브릭캠퍼스’ 눈길 이전 기사보기 다음 기사보기 기자명 이홍규 입력 2018.10.05 10:58 댓글 0 SNS 기사보내기 기사저장 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 청명하고 높은 가을 하늘이 절정에 치닫는 10월이다. 10월은 특히 징검다리 연휴가 많아 연휴와 주말을 껴서 함께 여행 계획을 잡는 이들이 많다. 이 가운데 국내 여행지 중 가장 많은 이들이 방문하는 곳은 바로 제주도다. 제주도는 빼어난 바다 절경 외에도 다양한 테마의 축제 소식 등 10월 제주도 가볼 만한 곳들이 즐비해 있어 알차게 제주도 여행을 즐길 수 있다. 10월 제주도 가볼 만한 곳 중에 방송에도 나온 적 있는 레고 박물관 ‘브릭캠퍼스’가 최근 다양한 즐길 거리와 체험존, 먹거리까지 갖춘 공간으로 입소문을 타고 있어 화제가 된 바 있다. 이곳은 세계 최초로 브릭 작품을 감상할 수 있는 곳으로 국내외 최정상 브릭 아티스트 40여 명이 참여해 250여 점 이상의 작품이 있고, 효리네민박2, 런닝맨 등 방송에도 출연해 눈길을 끌고 있다. 특히 공항에서 차로 15분 거리에 있어 접근성이 좋아 제주공항 근처 가볼 만한 곳으로도 불리며 여행 첫날이나 마지막 날 들르기 좋은 곳으로 입소문을 타고 있다. 제주도 명소 ‘브릭캠퍼스’는 들어가자마자 500평 규모의 야외 정원과 호수가 있고 곳곳에 브릭으로 만들어진 포토존 등이 마련되어 있어 제주도 사진 명소라 불리기도 한다. 실내에는 수도꼭지 모양의 조형물에서 브릭이 쏟아져 내리는 듯한 연출로 상상력을 자극하며, 2002년 월드컵을 재현해 놓은 경기장 모형과 캐릭터, 나라별 랜드마크 등 다채로운 브릭 작품을 한 자리에서 만나볼 수 있다. 또한, 초상화나 브릭 액세서리 등을 만들 수도 있어 연인, 가족, 친구와 함께 방문하는 발길이 끊이지 않고 있다. 브릭 체험 등 여러 즐길 거리와 함께 허기진 배를 달랠 수 있는 브릭 카페는 브릭 모양의 버거와 케이크를 맛볼 수도 있다. 이색적인 비주얼의 메뉴들은 유기농으로 만들어 소비자의 건강과 맛을 동시에 사로잡았다는 평이다. 더불어 제주공항에 있는 큰 조형물은 설문대 할망 제주도 설화를 모티브로 표현해 보는 이로 하여금 궁금증을 불러일으키기도 했다. 해당 업체 관계자는 “최근 아이가 있는 가족단위 관광객뿐만 아니라 키덜트족도 다양한 굿즈샵과 이색적인 브릭 작품을 보기 위해 찾아주신다. 아이랑 함께 혹은 가족이 함께 즐길 수 있는 제주도 여행코스를 생각하고 있다면 브릭캠퍼스는 최고의 선택이 될 것이다. 또한, 네이버로 사전예약 시 정상 가격보다 할인된 가격으로 이용하기 좋으니 참고 부탁 드린다.”고 전했다. SNS에서도 알려진 브릭캠퍼스는 사계절 내내 즐길 수 있는 실내 관광지로 꾸준히 인기몰이를 하고 있다. 이홍규 ehehwn@hanmail.net 기자의 다른기사 저작권자 © 디트NEWS24 무단전재 및 재배포 금지 추천뉴스 세계시민 모인 대전 UCLG 총회, 역대 최대 규모 개막 도로 위 달리는 기차 ‘트램’...안전대책 미비 축산물품질평가원 '특공 취지' 역행... 절반이 매도·임대 행렬 한화이글스 안방마님 최재훈 후계자 찾기 3파전 제1회 세종시 '어울링 바이크 투어' 10일 성황리 마무리 인기기사 주간 일간 1 우려가 현실로... 세종시 70대 여성 '전동 킥보드 사고'로 사망 2 충남 공주에 본사를 둔 우석건설 부도 3 대전 서남부종합스포츠타운, 연말 그린벨트 해제 요청 4 제1회 세종시 '어울링 바이크' 투어... 10일 정상 진행한다 5 박찬주 전 대장, 육사 이전 반대 동창회에 '결단' 촉구 6 10월 둘째 주 아파트 분양일정 7 대전 용문동 1·2·3구역 ‘둔산 더샵 엘리프’ 중소기업 근로자 특별공급 8 [관점] ‘이장우·김태흠 100일’ 권위주의 리더십의 한계 9 건강식품 디렉터로 ‘인생 2막’ 연 SS501 김규종...명성 건 ‘달도효소’ 출시 10 충남도, 사립유치원 교육비 지원 중단되나 1 제1회 세종시 '어울링 바이크 투어' 10일 성황리 마무리 2 세계시민 모인 대전 UCLG 총회, 역대 최대 규모 개막 3 대전 UCLG 총회 아태지부 '네트워킹의 밤' 성료 4 제13회 대전효문화뿌리축제, 3대가 함께 어우러진 안전한 축제로 마무리 5 유성구, 2022 앙코르 실버페스티벌 대성황 6 서산시·태안군, 행안부 특별교부세 55억 확보 7 동구 정다운어르신복지관 제26회 노인의날 기념 경로잔치 8 청양군청 이희진 선수 ‘1cm 차’ 명승부 은메달 9 서산 해미읍성축제 성료···민초의 삶 구현 호평 10 서구 월평2동, 2022 선사마을 축제 성료 실시간 댓글 최신댓글 댓글많은기사 1 뭐때문에 이렇게 화가 나신건지 도통 알수가없네;; 일단 한글부터 좀 제대로 익히시고 말씀을 해주시길.. 학교폭력은 학교랑 경찰이랑 상의하세요 2 자기들이 공무원 하겠다고 민간인 신분을 잠시 내려놓은것 아닌가요? 공무원 하겠다고 하는사람들이 하라는 봉사는 안하고 일은 저질러놓고 손해배상은 나몰라라 하고 말로만 떠들어대고 책임감도없고 일하기는 싫고 탁상 행정은 먼가요 그러고 일반인이 관련 법 일일이 찻자서 대응 하면 괄련 법령이 삭제(소멸) 되는걸 모르세요 발령 받아서 도망가면 끝 3 규종님 응원하고 있어요!! 달도효소 화이팅! 4 건강분야 컨셉 잘 선택하신것 같아요^ 오랫동안 잘 브랜드 만드시길 응원합니다. 5 달도효소^^ 김규종님 응원합니다^^~~ 6 규종오빠 항상 응원해요 7 SS501 김규종. 어제 살림남2 최수종 하희라편에도 나오던데, 최수종하고도 가까운 사이인가요? ㅎㅎ 달도효소는 무엇인가요? 궁금합니다. 아무튼 제2의인생 잘 시작하길 바랍니다 8 언제 이런걸준비했대요? 외디즈 달도효소^^ ㅋㅋ 규종님. 제 2의 사업도 대승하리라 믿어의심치 않습니다. 저도 펀딩하고 먹어볼께요.^^ 9 진짜맛있어요. 달도효소! 오빠의 진심이 느껴집니다.^^ 10 와디즈에 펀딩했어요. 오빠의 진심이 느껴지는 상세페이지 사업가로서도 성공하길 기도합니다 1 용산초 학부모들 "모듈러 교실 절대 반대, 등교 거부 하겠다" 2 건강식품 디렉터로 ‘인생 2막’ 연 SS501 김규종...명성 건 ‘달도효소’ 출시 3 이상래 대전시의장, 외유논란 사과...제주연수는 취소 4 "손주들 모듈러 교실로 꼭 보내라"..대전시의회, 시교육청 '난타' 5 지방거점국립대 1인당 교육비, 서울대 38.9% 수준 6 서철모 서구청장, 본회의장에서 대놓고 의회 무시? 7 위태로운 9대 대전시의회, 애꿎은 사무처에 화풀이? 8 박찬주 전 대장, 육사 이전 반대 동창회에 '결단' 촉구 9 논산에 둥지 튼 ‘한국유교문화진흥원’ 문 열었다 10 [부고] 박순영(지방분권 세종회의 회장) 씨 별세 하단영역 주요뉴스 대전신일여고, 지역 주민과 함께 하는 ' ‘Gallery 48’ 개관 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 도로 위 달리는 기차 ‘트램’...안전대책 미비 ‘강경젓갈이 상월고구마를 만나다!’ 12일 개막 논산시의회, 개원 100일 맞아...생활밀착형 의정활동 펼쳐 계룡세계군문화엑스포, 국내외 참전용사 및 가족 초청 행사 개최 전교조 대전지부 "갑질 부추기는 이장우 대전시장" 대전 서구 월평도서관 원데이 미디어 클래스 운영 대전 서구, 갈마·둔산·월평도서관 시니어 기초영어 운영 계룡시, 소규모 농업인 시설하우스 지원 추진 전체보기 Contact US 대표전화 042-471-8114 팩스 042-471-8120 제보전화 042-471-811424시간 긴급 기사·사건 제보(심야·공휴일) Infomation 매체소개 기사제보 광고문의 이용약관 언론윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 장기간행물등 사업등록증 : 대전 아 00003 등록년월일 : 2001-08-01 제호 : 디트NEWS24 법인명 : (주)디트뉴스24 발행일 : 2001-08-01 발행인 : 박길수 편집인 : 김재현, 박길수 청소년보호책임자 : 박길수 대전광역시 서구 한밭대로 755 (삼성생명) 삼성생명빌딩 703호 대표전화 : 042-471-8114 팩스 : 042-471-8120 [ 디트뉴스24 ] 사업자번호 : 305-81-63253 통신판매업신고번호 : 제2011-대전중구-0243호 Copyright © 2022 디트NEWS24. All rights reserved. naver-tv youtube facebook 위로 전체메뉴 전체기사 정치 전체 국회/청와대 대전 충남 세종 행정 전체 대전 정부대전청사 세종 정부세종청사 충남 경제 전체 건설·부동산 유통 금융 경영·기업 이기업인 창업정보 과학·IT·드론 대전테크노파크 스마트혁신 사회 전체 법원/검찰 경찰 대전 세종 충남 교육문화스포츠 전체 교육일반 초중고 대학 문화일반 공연전시 문학소설 스포츠 책이야기 책 기부 캠페인 내부칼럼 전체 사설 디트의 눈 데스크칼럼 관점 김학용 칼럼 외부칼럼 전체 자문위원 칼럼 자유기고 오광영의 손스피커 대덕구 혁신로드 강영환의 로컬노믹스 여정권의 야구에 산다 한기원 칼럼 권혁필의 새로운 생각 성광진의 교육 통(痛) 이지완의 포토詩세이 김충남의 열두줄 인문학 라창호의 허튼소리 가기천의 확대경 박경은의 힐링에세이 송선헌의 시와 그림 김종진의 행복한 인성 이야기 김경훈의 공감소통 변해섭의 선거법 해설 리헌석의 예술계 산책 정승열의 세계 속으로 송진괄의 신비한 산야초 오정균의 세상만사 박한표의 사진 한 장 강영환의 정치 톺아보기 손창규의 과학 한의학 길공섭의 빛그림 황종규의 술이야기 윤영애의 명리 山海境 디트맛집 전체 대전 세종 충남 언론계 전체 언론계 소식 미디어비평 본사-알립니다 디트메디 전체 의료계 의료인 충남디트 전체 천안·아산 서산·태안·당진 공주·부여·청양 예산·홍성 논산·계룡·금산 보령·서천 디트사이언스 전체 대덕특구 출연연구기관 중기벤처기업 보도자료 전체 대전시 세종시 충남도 동구 중구 서구 유성구 대덕구 기타 사람들 전체 부음 결혼 인사 행사·모임 수상 동정 사람들 우리기관 홍보맨 사람이 미래다 웰빙 전체 여행과 레저 트렌드 TV/연예 전체 TV 연예 대전교육복지소식 전체 교육청소식 학교소식 학생기자단 정보마당 충남체육예술교육 전체 충남도교육청 지역교육지원청 학교소식 미분류 지난연재 기타 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 12:33 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N3 이전 다음 국제관함식 참가 장병, 제주도내 공영관광지 무료 입장 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 사회 국제관함식 참가 장병, 제주도내 공영관광지 무료 입장 홍석준 기자 승인 2018.10.04 10:30 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도, 45개국 대표단 1만8000여명 대상 제주 관광자원 홍보 차원 [미디어제주 홍석준 기자] 제주에서 열리는 2018 국제관함식 참가 장병을 대상으로 한 제주도내 공영관광지 무료 입장 이벤트가 마련됐다. 제주특별자치도는 오는 10월 10일부터 14일까지 5일간 관함식 참가 장병들이 공영관광지에 무료로 입장할 수 있도록 하는 한편 이동형 관광안내소 운영 등 제주를 홍보하기 위한 다양한 이벤트를 마련했다고 4일 밝혔다. 도 관계자는 “관함식 기간 중 45개국 대표단 1만8000여명이 제주를 방문할 것으로 예상, 이들을 대상으로 제주의 매력적인 관광자원을 세계적으로 널리 알리기 위한 것이라고 취지를 설명했다. 이에 따라 행사기간 중 관함식 기획단에서 발급한 표찰을 소지하면 유료 공영관광지 29곳(도 13곳, 제주시 3곳, 서귀포시 13곳)에 무료로 입장할 수 있다. 또 제주도관광협회와 공동으로 관함식 기간 중 행사장 안에 이동형 관광안내소를 운영, 관광 홍보책자를 배부하는 등 관광지 홍보 이벤트를 진행할 예정이다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 6&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>군 장병, 국제관함식 기간 제주도 공영관광지 무료입장 &lt; 전국 &lt; 기사본문 - BBS NEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 11:37 (화) 로그인 회원가입 BBS불교방송 홈페이지 바로가기 상세검색 facebook twitter kakaostory youtube 전체 경제 정치 제 20대 대통령 선거 사회 문화ㆍ스포츠 불교 국제 전국 BBS 인터뷰 BBS 칼럼 BBS 취재수첩 BBS PLAZA 인사/부고 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 군 장병, 국제관함식 기간 제주도 공영관광지 무료입장 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 군 장병, 국제관함식 기간 제주도 공영관광지 무료입장 기자명 황민호 기자 입력 2018.10.04 14:09 수정 2018.10.04 17:22 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주 국제관함식에 참가하는 장병들에게 도 내 공영관광지가 무료로 개방됩니다.제주도는 건군 70주년을 맞아 2018 국제관함식 기간인 오는 10일부터 14일까지 참가 장병을 대상으로 유료 공영관광지 무료입장 이벤트를 마련했다고 오늘(4일) 밝혔습니다.유료 공영관광지는 모두 29개소로 국제관함식 기획단에서 발급한 표찰을 소지하면 무료입장할 수 있습니다. 황민호 기자 acemino@bbsi.co.kr 다른기사 보기 저작권자 © BBS NEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 정토사회문화회관 개관, '사회공헌·포교'의 전당 ‘모두의 행복 발원’ 영평사에서 낙화전통문화축제 서울의 첫 수도 "한성백제문화제"...9/30~10/3 올림픽공원에서 공군 블랙이글스, 한강공원 에어쇼 우천으로 취소 미륵도량 봉덕사 "희망의 노래 전통차 축전" "건강한 자연 음식을"...봉녕사 사찰음식 대향연 개막 조계종 제37대 총무원장 진우스님 5일 취임 법회...BBS 생중계 정토사회문화회관 개관, '사회공헌·포교'의 전당 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 [코로나19]신규확진 1만명대...오늘부터 개량백신 접종 시작 최신뉴스 국제 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 전국 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 지방사 인터뷰 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 사회 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 경제 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 포토뉴스 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 인기뉴스 1 조계종 제6대 군종교구장에 능원스님 단독 추천 2 관음성지 양양 낙산사, 가을 맞이 사찰음식 나눔 잔치 3 무주 일가족 사상사고...보일러 배기관 막혀 4 러시아, 우크라 전역에 미사일 보복 공습...백여명 사상 5 [뉴스파노라마 한글날 특집] 김영수 관장 "한글, 한국문화 직조하는 씨줄 날줄...귀하게 여겨 잘 썼으면" 6 '하루가 멀다 하고 또'…충북 교육계 성추문 얼룩 7 조계종 제18대 직능대표와 비구니 중앙종회의원 30명 선출 8 은해사 창건 1213주년, 해인사 창건 1220주년.....개산 기념 문화 행사 풍성 BBS 칼럼 전경윤의 ‘세상살이’ 전영신의 ‘시선’ 신두식의 ‘공감노트’ 배재수의 ‘크로키’ 이현구의 ‘스윗 스팟’ 선임기자 칼럼 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 BBS불교방송(재) 서울특별시 마포구 마포대로 20 (다보빌딩) 대표전화 : 02-705-5114 팩스 : 02-705-5229 청소년보호책임자 : 배재수 제호 : BBS NEWS 등록번호 : 서울 아 01259 등록일 : 2010-06-03 발행일 : 2001-09-01 발행인 : 서주영(금호) 편집인 : 전경윤 BBS NEWS 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 BBS NEWS. All rights reserved. mail to webmaster@bbsi.co.kr 위로 전체메뉴 전체기사 경제 정치 전체 20대 국회 국정감사 트럼프 당선 2017 국회 국정감사 2018 남북정상회담 6.12 북미 정상회담 제7회 전국동시지방선거 2차 북미정상회담 21대 국회의원 총선거 제20대 대통령 선거 제8회 전국동시지방선거 사회 전체 2018학년도 대입 수능 뉴스줌인 인터넷 야단법석 문화ㆍ스포츠 전체 2016 리우올림픽 2018 동계올림픽 2018 동계 패럴림픽 2018 러시아월드컵 2018 아시안게임 2020 도쿄올림픽 불교 전체 2018 무술년 신년인사 스리랑카 대통령 방한 제35대 총무원장 설정스님 2017 올해의 사자성어 당신이 연꽃입니다 기획보도 전통사찰을 가다 단박인터뷰 2018 부처님 오신날 2019 차문화대축제 3.1운동 100주년 월주 대종사 원적 2021 신축년 불교계 플랜 국제 전국 전체 전국네트워크 BBS 인터뷰 전체 BBS 전영신의 아침저널 BBS 뉴스파노라마 지방사 인터뷰 BBS 화쟁토론 BBS 경제토크 BBS 뉴스와 사람들 BBS 기획/단독 BBS 칼럼 전체 박경수의 '삼개나루' 전영신의 '시선' 신두식의 '공감노트' 배재수의 '크로키' 전경윤의 '세상살이' 선임기자 칼럼 이현구의 '북악산 자락' 권예진의 거꾸로 세상보기 양창욱의 ‘야단법석(野壇法席)’ 명사 칼럼 김호준의 '내시경' 이현구의 스윗 스팟 BBS 취재수첩 BBS 개국 30주년 BBS 장군죽비 BBS PLAZA 인사/부고 기타 BBS 라디오 TV 알찬뉴스 지난 뉴스 다시보기 이전기사 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>가을 제주도 관광 명소 TOP3…향토음식 ‘이모밥상’ 한정식으로 든든하게 &lt; 생생! 푸드톡 &lt; 생생! 톡 &lt; 기사본문 - 서울와이어 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 모바일웹 2022-10-11 12:50 (화) 경제/산업 금융/증권 정치/사회 글로벌 부동산 핫이슈 ESG 포토뉴스 영상뉴스 보도자료 인사·부고 더보기 기사검색열기 기사검색 검색 검색닫기 본문영역 이전 기사보기 다음 기사보기 가을 제주도 관광 명소 TOP3…향토음식 ‘이모밥상’ 한정식으로 든든하게 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생생! 톡 생생! 푸드톡 가을 제주도 관광 명소 TOP3…향토음식 ‘이모밥상’ 한정식으로 든든하게 기자명 최선은 기자 승인 2018.10.12 17:02 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 이모밥상 [서울와이어 최선은 기자] 제주가 가장 아름다운 계절, 가을이 왔다. 이 시기 제주는 낭만이 가득한 억새의 황금물결이 일렁이고 햇볕과 바람이 적당해 이곳 저곳 날씨에 구애받지 않고 여행을 즐기기에 딱 좋다. 10월에 찾으면 더 좋은 제주 관광지 몇몇 곳을 소개해 본다. 한라산과 비슷한 시기에 생긴 것으로 알려진 산굼부리는 제주시 조천읍에 위치한 기생화산의 분화구다. 백록담과 비슷한 모습의 산굼부리는 가을이 되면 억새 군락이 바람에 흔들리는 모습이 장관이라 관광객들의 발걸음이 끊이지 않는다. 천연기념물 제263호로 보호를 받고 있는 산굼부리는 입장시간 제한이 있다. 10월에는 오전 9시부터 오후 6시30분까지 운영된다. 산굼부리에서 멀지 않은 곳에 위치한 제주 미니랜드는 제주도에서 세계 곳곳을 찾아가는 체험이 가능한 곳이다. 자유의 여신상, 피사의 사탑 등 각국의 대표 랜드마크들을 미니어처로 만들어 놓아 마치 걸리버가 된 것 같은 기분을 느낄 수 있다. 촬영 포인트가 많아 사진을 찍는 즐거움도 누릴 수 있다. 수목원테마파크는 수목원 입구에 위치한 곳으로 착시 미술을 통한 재미있는 체험이 가능한 곳이다. 수목원테마파크 안에는 아이스뮤지엄도 있는데 이곳은 365일 얼음으로 가득하다. 대형 얼음 미끄럼틀을 탈 수 있으며 다양한 얼음 공예 작품도 만나볼 수 있다. 가을의 제주에는 이처럼 들릴 곳이 많으니 관광 전 든든하게 배를 채우는 것은 기본이다. 제주시에 위치한 '이모밥상'은 제주 향토음식을 전문으로 하는 한정식집이다. 이 집의 대표 메뉴인 제주향토한정식은 저렴한 가격에 돔베고기, 전복구이, 옥돔구이 등 제주의 귀한 식재료를 이용한 요리는 물론 해물뚝배기, 양념게장, 잡채, 계란찜 등 열 다섯 가지나 되는 푸짐한 한상차림을 즐길 수 있는 메뉴다. 한정식 메뉴는 다양한 음식이 나오는 만큼 골라먹는 재미를 느낄 수 있다. 가짓수만 늘린 게 아니라 하나하나 맛깔 나게 만들어 남녀노소 누구나 맛있게 먹을 수 있다. 고등어구이, 옥돔구이 등은 단품으로도 판매한다. '맛있는 재료로 맛없는 음식을 만들 수는 있지만 맛없는 재료로는 맛있는 음식을 만들 수 없다'는 말이 있듯이 이 집은 재료의 신선함을 가장 중요하게 생각한다. 매일 식재료를 직접 선별해 최상급 재료만 사용하는 것도 그래서다. 깐깐한 재료를 고르는 만큼 음식을 만드는 주방이나 식사를 하는 홀 역시 깔끔하고 청결하게 관리한다. 제주도 한정식으로 알려진 이 음식점은 제주공항과 가까이 있으며 여러 관광지들과도 가까워 관광객들도 많이 찾는다. 매장이 넓고 대형 주차장을 보유하고 있어 단체 회식이나 가족 모임 시 들리기에 적합하다. 이 집은 연중무휴로 운영되며 운영시간은 오전 10시부터 밤 10시까지다. press@seoulwire.com 최선은 기자 press@seoulwire.com 다른기사 보기 저작권자 © 서울와이어 무단전재 및 재배포 금지 Sponsored AD 당신만 안 본 뉴스 출근길 서울지하철 5호선 또 먹통...장애인단체 시위 마약 최근 손댔다던 돈스파이크… 10년전부터 상습 투약 영국 패션쇼에 오른 한복… '예비신부' 김연아가 디자인 유튜브 댓글 의심이 사실로… 가수 돈스파이크 필로폰 투약 다가온 콘서트 시즌… '히어로' 임영웅 실물 보려면 대전 현대아울렛 직원 보상...매니저 350만원, 판매사원 250만원 [CEO투데이] '두 번째 혁신' 준비하는 김슬아 마켓컬리 대표 출근길 서울지하철 5호선 또 먹통...장애인단체 시위 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 尹 “청년 꿈 좌절 안 하도록… 희망의 사다리 놓아야” 강원경찰청, 외국인 노동자 상대 마약유통… 태국인 65명 검거 KB자산운용, 글로벌 원자력 ETF 출시 한국투자증권, 테슬라·애플 기초 주가연계증권 모집 노벨경제학상 버냉키 "금융위기극복, 다양한 사건 주시해야" [부고] 박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 최신뉴스 尹 “청년 꿈 좌절 안 하도록… 희망의 사다리 놓아야” 강원경찰청, 외국인 노동자 상대 마약유통… 태국인 65명 검거 KB자산운용, 글로벌 원자력 ETF 출시 한국투자증권, 테슬라·애플 기초 주가연계증권 모집 노벨경제학상 버냉키 "금융위기극복, 다양한 사건 주시해야" 핫이슈 나주시, 대한민국 평생학습대상 우수상 쾌거 광주시, 안전대전환 집중안전점검 최종보고회 개최 해남군‘어르신이 행복한 해남 만들기’맞춤형 노인복지 강화 무안군, 고품질 돌김 생산 위한 김 양식어장 예찰지도 실시 인기뉴스 1 임영웅, 6일만에 유튜브 1000만 조회수 달성… 17억뷰 고지 목전 2 [산업 이슈 픽] 국정감사 앞둔 한전, 여야 집중타깃 되나? 3 김주형 PGA 최연소 2승...레전드 타이거 우즈 기록 갈아치웠다 4 러, 우크라 주요도시 미사일 타격… 크림대교 폭파 보복 추정 5 중국, 반도체 때리기에 희토류 수출 통제로 대응 6 [날씨] 전국 흐리고 비… 강한 바람에 체감온도 '뚝' 떨어진다 7 담원 기아 압도적 우승… 배틀그라운드 모바일, ‘PMPS 2022 시즌 4’ 성료 8 뉴욕증시, 통화긴축 우려·전쟁 불안·JP모건 경고에 하락 마감 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 서비스 전체보기 매체정보 서울특별시 마포구 만리재로 15 (제일빌딩) 10층 1011,1012호 대표전화 : 02-6952-0992 청소년보호책임자 : 김숙영 법인명 : 이슈앤비즈미디어(주) 제호 : 서울와이어 등록번호 : 서울 아 03747 등록일 : 2015-05-21 발행일 : 2015-04-01 발행인 : 편집인 : 김종현 서울와이어 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 서울와이어. All rights reserved. mail to sw@seoulwire.com 한국인터넷신문협회 회원사 위로 전체메뉴 전체기사 경제/산업 전체 생활경제 공유경제 브랜드경제 정치 정상회담 산업 IT 업사이클 금융/증권 전체 금융 증권 정치/사회 글로벌 전체 글로벌 부동산 전체 부동산 핫이슈 전체 정치 정상회담 사회 패션/뷰티 문화 오피니언 인사·동정 사회적기업 인터뷰 정책 방송/연예/스포츠/라이프 전체 방송/연예/스포츠 스타트업 생생! 톡 전체 생생! 주부톡 생생! 알람톡 생생! 푸드톡 생생! 아이톡 생생! 엔터톡 영상뉴스 증시 공시 기획특집 긴급진단 기자수첩 ESG 보도자료 인사·부고 CEO 투데이 메타센서 글렌다박의 블루오션 전체메뉴닫기</t>
   </si>
 </sst>
 </file>
@@ -425,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -457,6 +541,9 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -466,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -477,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -488,7 +575,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -499,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -509,6 +596,9 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
@@ -518,7 +608,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -529,7 +619,212 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
